--- a/SKH_10112_2_Mapping.xlsx
+++ b/SKH_10112_2_Mapping.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tesla\data\MS\DBH\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686F51E3-CC7F-45FA-A37A-52B20C84D191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FE102B-7C58-4783-8013-55160DC7EFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="1" xr2:uid="{B2170FF3-234A-4270-BCA9-85899B3D8C87}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="2" r:id="rId1"/>
     <sheet name="Mapping" sheetId="3" r:id="rId2"/>
-    <sheet name="Mapping (old)" sheetId="1" r:id="rId3"/>
+    <sheet name="Mapping (less old)" sheetId="4" r:id="rId3"/>
+    <sheet name="Mapping (old)" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="accreditationApplicabilityType">Definitions!$F$2:$F$3</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="1650">
   <si>
     <t>MIC in SAP</t>
   </si>
@@ -3169,9 +3170,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>//*[@id="acc1"]/dcc:body[@lang="en"]</t>
-  </si>
-  <si>
     <t>The calibration is caried out under DANAK accreditation no. 490 unless clearly statet in the tabel of results.
                 DANis the national accreditation body in Denmark in compliance with Regulation (EC) No. 765/2008 of the European Parliament and of the Council.
                 DANis covered by the multilateral agreements for testing, medical examination, calibration, proficiency testing providers and reference material producers under European co-operation for Accreditation (EA) and under International Laboratory Accreditation Cooperation (ILAC) based on peer-evaluation. This implies that accredited reports and certificates issued by companies accredited by DANAK are recognized across borders by members of EA and ILAC equal to reports and certificates issued by companies accredited by these members</t>
@@ -4983,7 +4981,46 @@
     <t>units</t>
   </si>
   <si>
-    <t>*//dcc:rowTag[text()="pt3"]/</t>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:customerIdentification/dcc:value/text()</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation/dcc:accreditationBody/text()</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation/dcc:accreditationLabId/text()</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:uniqueIdentifier/dcc:value/text()</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:respPersons/dcc:respPerson/dcc:name/text()</t>
+  </si>
+  <si>
+    <t>/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="acc1"]/dcc:body[@lang="en"]/text()</t>
+  </si>
+  <si>
+    <t>*//*[text()="pt1"]/@idx</t>
+  </si>
+  <si>
+    <t>*//*[text()="pt2"]/@idx</t>
+  </si>
+  <si>
+    <t>*//*[text()="pt3"]/@idx</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>//*/dcc:row[@idx="1"]/text()</t>
   </si>
 </sst>
 </file>
@@ -5077,7 +5114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -5100,6 +5137,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{8E63ABFB-B432-4BA8-B1FB-78231E57A87E}"/>
@@ -5418,7 +5457,7 @@
   <dimension ref="A1:W863"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5480,7 +5519,7 @@
         <v>20</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>124</v>
@@ -5489,10 +5528,10 @@
         <v>1026</v>
       </c>
       <c r="Q1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="R1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="S1" t="s">
         <v>134</v>
@@ -5504,10 +5543,10 @@
         <v>13</v>
       </c>
       <c r="V1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="W1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -5557,13 +5596,13 @@
         <v>125</v>
       </c>
       <c r="P2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="Q2" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="R2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="S2" t="s">
         <v>135</v>
@@ -5575,10 +5614,10 @@
         <v>1029</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="W2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -5619,16 +5658,16 @@
         <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="O3" t="s">
         <v>126</v>
       </c>
       <c r="P3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="Q3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="R3" t="s">
         <v>21</v>
@@ -5643,10 +5682,10 @@
         <v>147</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>21</v>
+        <v>1035</v>
       </c>
       <c r="W3" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -5678,10 +5717,10 @@
         <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="Q4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="R4" t="s">
         <v>1032</v>
@@ -5696,7 +5735,7 @@
         <v>108</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>1036</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -5725,13 +5764,13 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q5" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="R5" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="S5" t="s">
         <v>1028</v>
@@ -5766,13 +5805,13 @@
         <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q6" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="R6" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="S6" t="s">
         <v>137</v>
@@ -5802,13 +5841,13 @@
         <v>92</v>
       </c>
       <c r="N7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Q7" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="R7" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="S7" t="s">
         <v>138</v>
@@ -5831,13 +5870,13 @@
         <v>93</v>
       </c>
       <c r="N8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="Q8" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="R8" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="S8" t="s">
         <v>139</v>
@@ -5857,13 +5896,13 @@
         <v>132</v>
       </c>
       <c r="N9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Q9" t="s">
         <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="S9" t="s">
         <v>140</v>
@@ -5883,10 +5922,10 @@
         <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R10" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="S10" t="s">
         <v>141</v>
@@ -5903,7 +5942,7 @@
         <v>95</v>
       </c>
       <c r="N11" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="S11" t="s">
         <v>142</v>
@@ -5917,7 +5956,7 @@
         <v>96</v>
       </c>
       <c r="N12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="S12" t="s">
         <v>143</v>
@@ -5931,7 +5970,7 @@
         <v>97</v>
       </c>
       <c r="N13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -5942,7 +5981,7 @@
         <v>98</v>
       </c>
       <c r="N14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -5953,7 +5992,7 @@
         <v>99</v>
       </c>
       <c r="N15" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -5964,7 +6003,7 @@
         <v>100</v>
       </c>
       <c r="N16" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="17" spans="3:14">
@@ -5975,7 +6014,7 @@
         <v>1024</v>
       </c>
       <c r="N17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="18" spans="3:14">
@@ -5986,7 +6025,7 @@
         <v>101</v>
       </c>
       <c r="N18" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="19" spans="3:14">
@@ -5997,7 +6036,7 @@
         <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="20" spans="3:14">
@@ -6008,7 +6047,7 @@
         <v>103</v>
       </c>
       <c r="N20" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="21" spans="3:14">
@@ -6019,7 +6058,7 @@
         <v>87</v>
       </c>
       <c r="N21" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="22" spans="3:14">
@@ -6030,7 +6069,7 @@
         <v>133</v>
       </c>
       <c r="N22" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="23" spans="3:14">
@@ -6041,7 +6080,7 @@
         <v>88</v>
       </c>
       <c r="N23" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="24" spans="3:14">
@@ -6052,7 +6091,7 @@
         <v>89</v>
       </c>
       <c r="N24" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="25" spans="3:14">
@@ -6063,7 +6102,7 @@
         <v>90</v>
       </c>
       <c r="N25" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="26" spans="3:14">
@@ -6074,7 +6113,7 @@
         <v>91</v>
       </c>
       <c r="N26" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="27" spans="3:14">
@@ -6085,7 +6124,7 @@
         <v>1025</v>
       </c>
       <c r="N27" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="28" spans="3:14">
@@ -6096,7 +6135,7 @@
         <v>72</v>
       </c>
       <c r="N28" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="29" spans="3:14">
@@ -6104,7 +6143,7 @@
         <v>189</v>
       </c>
       <c r="N29" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="30" spans="3:14">
@@ -6112,7 +6151,7 @@
         <v>190</v>
       </c>
       <c r="N30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="31" spans="3:14">
@@ -6120,7 +6159,7 @@
         <v>191</v>
       </c>
       <c r="N31" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="32" spans="3:14">
@@ -6128,7 +6167,7 @@
         <v>192</v>
       </c>
       <c r="N32" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="33" spans="3:14">
@@ -6136,7 +6175,7 @@
         <v>193</v>
       </c>
       <c r="N33" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="34" spans="3:14">
@@ -6144,7 +6183,7 @@
         <v>194</v>
       </c>
       <c r="N34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="35" spans="3:14">
@@ -6152,7 +6191,7 @@
         <v>195</v>
       </c>
       <c r="N35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="36" spans="3:14">
@@ -6160,7 +6199,7 @@
         <v>196</v>
       </c>
       <c r="N36" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="37" spans="3:14">
@@ -6168,7 +6207,7 @@
         <v>197</v>
       </c>
       <c r="N37" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="38" spans="3:14">
@@ -6176,7 +6215,7 @@
         <v>198</v>
       </c>
       <c r="N38" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="39" spans="3:14">
@@ -6184,7 +6223,7 @@
         <v>199</v>
       </c>
       <c r="N39" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="40" spans="3:14">
@@ -6192,7 +6231,7 @@
         <v>200</v>
       </c>
       <c r="N40" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="41" spans="3:14">
@@ -6200,7 +6239,7 @@
         <v>201</v>
       </c>
       <c r="N41" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="42" spans="3:14">
@@ -6208,7 +6247,7 @@
         <v>202</v>
       </c>
       <c r="N42" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="43" spans="3:14">
@@ -6216,7 +6255,7 @@
         <v>203</v>
       </c>
       <c r="N43" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="44" spans="3:14">
@@ -6224,7 +6263,7 @@
         <v>204</v>
       </c>
       <c r="N44" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="45" spans="3:14">
@@ -6232,7 +6271,7 @@
         <v>205</v>
       </c>
       <c r="N45" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="46" spans="3:14">
@@ -6240,7 +6279,7 @@
         <v>206</v>
       </c>
       <c r="N46" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="47" spans="3:14">
@@ -6248,7 +6287,7 @@
         <v>207</v>
       </c>
       <c r="N47" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="48" spans="3:14">
@@ -6256,7 +6295,7 @@
         <v>208</v>
       </c>
       <c r="N48" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="49" spans="3:14">
@@ -6264,7 +6303,7 @@
         <v>209</v>
       </c>
       <c r="N49" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="50" spans="3:14">
@@ -6272,7 +6311,7 @@
         <v>210</v>
       </c>
       <c r="N50" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="51" spans="3:14">
@@ -6280,7 +6319,7 @@
         <v>211</v>
       </c>
       <c r="N51" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="52" spans="3:14">
@@ -6288,7 +6327,7 @@
         <v>212</v>
       </c>
       <c r="N52" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="53" spans="3:14">
@@ -6296,7 +6335,7 @@
         <v>213</v>
       </c>
       <c r="N53" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="54" spans="3:14">
@@ -6304,7 +6343,7 @@
         <v>214</v>
       </c>
       <c r="N54" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="55" spans="3:14">
@@ -6312,7 +6351,7 @@
         <v>215</v>
       </c>
       <c r="N55" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="56" spans="3:14">
@@ -6320,7 +6359,7 @@
         <v>216</v>
       </c>
       <c r="N56" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="57" spans="3:14">
@@ -6328,7 +6367,7 @@
         <v>217</v>
       </c>
       <c r="N57" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="58" spans="3:14">
@@ -6336,7 +6375,7 @@
         <v>218</v>
       </c>
       <c r="N58" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="59" spans="3:14">
@@ -6344,7 +6383,7 @@
         <v>219</v>
       </c>
       <c r="N59" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="60" spans="3:14">
@@ -6352,7 +6391,7 @@
         <v>220</v>
       </c>
       <c r="N60" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="61" spans="3:14">
@@ -6360,7 +6399,7 @@
         <v>221</v>
       </c>
       <c r="N61" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="62" spans="3:14">
@@ -6368,7 +6407,7 @@
         <v>222</v>
       </c>
       <c r="N62" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="63" spans="3:14">
@@ -6376,7 +6415,7 @@
         <v>223</v>
       </c>
       <c r="N63" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="64" spans="3:14">
@@ -6384,7 +6423,7 @@
         <v>224</v>
       </c>
       <c r="N64" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="65" spans="3:14">
@@ -6392,7 +6431,7 @@
         <v>225</v>
       </c>
       <c r="N65" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="66" spans="3:14">
@@ -6400,7 +6439,7 @@
         <v>226</v>
       </c>
       <c r="N66" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="67" spans="3:14">
@@ -6408,7 +6447,7 @@
         <v>227</v>
       </c>
       <c r="N67" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="68" spans="3:14">
@@ -6416,7 +6455,7 @@
         <v>228</v>
       </c>
       <c r="N68" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="69" spans="3:14">
@@ -6424,7 +6463,7 @@
         <v>229</v>
       </c>
       <c r="N69" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="70" spans="3:14">
@@ -6432,7 +6471,7 @@
         <v>230</v>
       </c>
       <c r="N70" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="71" spans="3:14">
@@ -6440,7 +6479,7 @@
         <v>231</v>
       </c>
       <c r="N71" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="72" spans="3:14">
@@ -6448,7 +6487,7 @@
         <v>232</v>
       </c>
       <c r="N72" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="73" spans="3:14">
@@ -6456,7 +6495,7 @@
         <v>233</v>
       </c>
       <c r="N73" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="74" spans="3:14">
@@ -6464,7 +6503,7 @@
         <v>234</v>
       </c>
       <c r="N74" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="75" spans="3:14">
@@ -6472,7 +6511,7 @@
         <v>235</v>
       </c>
       <c r="N75" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="76" spans="3:14">
@@ -6480,7 +6519,7 @@
         <v>236</v>
       </c>
       <c r="N76" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="77" spans="3:14">
@@ -6488,7 +6527,7 @@
         <v>237</v>
       </c>
       <c r="N77" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="78" spans="3:14">
@@ -6496,7 +6535,7 @@
         <v>238</v>
       </c>
       <c r="N78" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="79" spans="3:14">
@@ -6504,7 +6543,7 @@
         <v>239</v>
       </c>
       <c r="N79" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="80" spans="3:14">
@@ -6512,7 +6551,7 @@
         <v>240</v>
       </c>
       <c r="N80" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="81" spans="3:14">
@@ -6520,7 +6559,7 @@
         <v>241</v>
       </c>
       <c r="N81" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="82" spans="3:14">
@@ -6528,7 +6567,7 @@
         <v>242</v>
       </c>
       <c r="N82" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="83" spans="3:14">
@@ -6536,7 +6575,7 @@
         <v>243</v>
       </c>
       <c r="N83" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="84" spans="3:14">
@@ -6544,7 +6583,7 @@
         <v>244</v>
       </c>
       <c r="N84" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="85" spans="3:14">
@@ -6552,7 +6591,7 @@
         <v>245</v>
       </c>
       <c r="N85" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="86" spans="3:14">
@@ -6560,7 +6599,7 @@
         <v>246</v>
       </c>
       <c r="N86" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="87" spans="3:14">
@@ -6568,7 +6607,7 @@
         <v>247</v>
       </c>
       <c r="N87" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="88" spans="3:14">
@@ -6576,7 +6615,7 @@
         <v>248</v>
       </c>
       <c r="N88" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="89" spans="3:14">
@@ -6584,7 +6623,7 @@
         <v>249</v>
       </c>
       <c r="N89" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="90" spans="3:14">
@@ -6592,7 +6631,7 @@
         <v>250</v>
       </c>
       <c r="N90" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="91" spans="3:14">
@@ -6600,7 +6639,7 @@
         <v>251</v>
       </c>
       <c r="N91" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="92" spans="3:14">
@@ -6608,7 +6647,7 @@
         <v>252</v>
       </c>
       <c r="N92" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="93" spans="3:14">
@@ -6616,7 +6655,7 @@
         <v>253</v>
       </c>
       <c r="N93" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="94" spans="3:14">
@@ -6624,7 +6663,7 @@
         <v>254</v>
       </c>
       <c r="N94" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="95" spans="3:14">
@@ -6632,7 +6671,7 @@
         <v>255</v>
       </c>
       <c r="N95" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="96" spans="3:14">
@@ -6640,7 +6679,7 @@
         <v>256</v>
       </c>
       <c r="N96" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="97" spans="3:14">
@@ -6648,7 +6687,7 @@
         <v>257</v>
       </c>
       <c r="N97" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="98" spans="3:14">
@@ -6656,7 +6695,7 @@
         <v>258</v>
       </c>
       <c r="N98" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="99" spans="3:14">
@@ -6664,7 +6703,7 @@
         <v>259</v>
       </c>
       <c r="N99" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="100" spans="3:14">
@@ -6672,7 +6711,7 @@
         <v>260</v>
       </c>
       <c r="N100" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="101" spans="3:14">
@@ -6680,7 +6719,7 @@
         <v>261</v>
       </c>
       <c r="N101" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="102" spans="3:14">
@@ -6688,7 +6727,7 @@
         <v>262</v>
       </c>
       <c r="N102" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="103" spans="3:14">
@@ -6696,7 +6735,7 @@
         <v>263</v>
       </c>
       <c r="N103" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="104" spans="3:14">
@@ -6704,7 +6743,7 @@
         <v>264</v>
       </c>
       <c r="N104" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="105" spans="3:14">
@@ -6712,7 +6751,7 @@
         <v>265</v>
       </c>
       <c r="N105" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="106" spans="3:14">
@@ -6720,7 +6759,7 @@
         <v>266</v>
       </c>
       <c r="N106" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="107" spans="3:14">
@@ -6728,7 +6767,7 @@
         <v>267</v>
       </c>
       <c r="N107" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="108" spans="3:14">
@@ -6736,7 +6775,7 @@
         <v>268</v>
       </c>
       <c r="N108" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="109" spans="3:14">
@@ -6744,7 +6783,7 @@
         <v>269</v>
       </c>
       <c r="N109" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="110" spans="3:14">
@@ -6752,7 +6791,7 @@
         <v>270</v>
       </c>
       <c r="N110" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="111" spans="3:14">
@@ -6760,7 +6799,7 @@
         <v>271</v>
       </c>
       <c r="N111" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="112" spans="3:14">
@@ -6768,7 +6807,7 @@
         <v>272</v>
       </c>
       <c r="N112" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="113" spans="3:14">
@@ -6776,7 +6815,7 @@
         <v>273</v>
       </c>
       <c r="N113" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="114" spans="3:14">
@@ -6784,7 +6823,7 @@
         <v>274</v>
       </c>
       <c r="N114" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="115" spans="3:14">
@@ -6792,7 +6831,7 @@
         <v>275</v>
       </c>
       <c r="N115" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="116" spans="3:14">
@@ -6800,7 +6839,7 @@
         <v>276</v>
       </c>
       <c r="N116" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="117" spans="3:14">
@@ -6808,7 +6847,7 @@
         <v>277</v>
       </c>
       <c r="N117" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="118" spans="3:14">
@@ -6816,7 +6855,7 @@
         <v>278</v>
       </c>
       <c r="N118" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="119" spans="3:14">
@@ -6824,7 +6863,7 @@
         <v>279</v>
       </c>
       <c r="N119" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="120" spans="3:14">
@@ -6832,7 +6871,7 @@
         <v>280</v>
       </c>
       <c r="N120" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="121" spans="3:14">
@@ -6840,7 +6879,7 @@
         <v>281</v>
       </c>
       <c r="N121" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="122" spans="3:14">
@@ -6848,7 +6887,7 @@
         <v>282</v>
       </c>
       <c r="N122" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="123" spans="3:14">
@@ -6856,7 +6895,7 @@
         <v>283</v>
       </c>
       <c r="N123" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="124" spans="3:14">
@@ -6864,7 +6903,7 @@
         <v>284</v>
       </c>
       <c r="N124" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="125" spans="3:14">
@@ -6872,7 +6911,7 @@
         <v>285</v>
       </c>
       <c r="N125" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="126" spans="3:14">
@@ -6880,7 +6919,7 @@
         <v>286</v>
       </c>
       <c r="N126" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="127" spans="3:14">
@@ -6888,7 +6927,7 @@
         <v>287</v>
       </c>
       <c r="N127" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="128" spans="3:14">
@@ -6896,7 +6935,7 @@
         <v>288</v>
       </c>
       <c r="N128" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="129" spans="3:14">
@@ -6904,7 +6943,7 @@
         <v>289</v>
       </c>
       <c r="N129" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="130" spans="3:14">
@@ -6912,7 +6951,7 @@
         <v>290</v>
       </c>
       <c r="N130" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="131" spans="3:14">
@@ -6920,7 +6959,7 @@
         <v>291</v>
       </c>
       <c r="N131" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="132" spans="3:14">
@@ -6928,7 +6967,7 @@
         <v>292</v>
       </c>
       <c r="N132" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="133" spans="3:14">
@@ -6936,7 +6975,7 @@
         <v>293</v>
       </c>
       <c r="N133" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="134" spans="3:14">
@@ -6944,7 +6983,7 @@
         <v>294</v>
       </c>
       <c r="N134" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="135" spans="3:14">
@@ -6952,7 +6991,7 @@
         <v>295</v>
       </c>
       <c r="N135" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="136" spans="3:14">
@@ -6960,7 +6999,7 @@
         <v>296</v>
       </c>
       <c r="N136" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="137" spans="3:14">
@@ -6968,7 +7007,7 @@
         <v>297</v>
       </c>
       <c r="N137" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="138" spans="3:14">
@@ -6976,7 +7015,7 @@
         <v>298</v>
       </c>
       <c r="N138" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="139" spans="3:14">
@@ -6984,7 +7023,7 @@
         <v>299</v>
       </c>
       <c r="N139" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="140" spans="3:14">
@@ -6992,7 +7031,7 @@
         <v>300</v>
       </c>
       <c r="N140" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="141" spans="3:14">
@@ -7000,7 +7039,7 @@
         <v>301</v>
       </c>
       <c r="N141" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="142" spans="3:14">
@@ -7008,7 +7047,7 @@
         <v>302</v>
       </c>
       <c r="N142" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="143" spans="3:14">
@@ -7016,7 +7055,7 @@
         <v>303</v>
       </c>
       <c r="N143" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="144" spans="3:14">
@@ -7024,7 +7063,7 @@
         <v>304</v>
       </c>
       <c r="N144" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="145" spans="3:14">
@@ -7032,7 +7071,7 @@
         <v>305</v>
       </c>
       <c r="N145" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="146" spans="3:14">
@@ -7040,7 +7079,7 @@
         <v>306</v>
       </c>
       <c r="N146" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="147" spans="3:14">
@@ -7048,7 +7087,7 @@
         <v>307</v>
       </c>
       <c r="N147" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="148" spans="3:14">
@@ -7056,7 +7095,7 @@
         <v>308</v>
       </c>
       <c r="N148" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="149" spans="3:14">
@@ -7064,7 +7103,7 @@
         <v>309</v>
       </c>
       <c r="N149" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="150" spans="3:14">
@@ -7072,7 +7111,7 @@
         <v>310</v>
       </c>
       <c r="N150" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="151" spans="3:14">
@@ -7080,7 +7119,7 @@
         <v>311</v>
       </c>
       <c r="N151" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="152" spans="3:14">
@@ -7088,7 +7127,7 @@
         <v>312</v>
       </c>
       <c r="N152" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="153" spans="3:14">
@@ -7096,7 +7135,7 @@
         <v>313</v>
       </c>
       <c r="N153" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="154" spans="3:14">
@@ -7104,7 +7143,7 @@
         <v>314</v>
       </c>
       <c r="N154" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="155" spans="3:14">
@@ -7112,7 +7151,7 @@
         <v>315</v>
       </c>
       <c r="N155" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="156" spans="3:14">
@@ -7120,7 +7159,7 @@
         <v>316</v>
       </c>
       <c r="N156" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="157" spans="3:14">
@@ -7128,7 +7167,7 @@
         <v>317</v>
       </c>
       <c r="N157" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="158" spans="3:14">
@@ -7136,7 +7175,7 @@
         <v>318</v>
       </c>
       <c r="N158" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="159" spans="3:14">
@@ -7144,7 +7183,7 @@
         <v>319</v>
       </c>
       <c r="N159" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="160" spans="3:14">
@@ -7152,7 +7191,7 @@
         <v>320</v>
       </c>
       <c r="N160" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="161" spans="3:14">
@@ -7160,7 +7199,7 @@
         <v>321</v>
       </c>
       <c r="N161" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="162" spans="3:14">
@@ -7168,7 +7207,7 @@
         <v>322</v>
       </c>
       <c r="N162" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="163" spans="3:14">
@@ -7176,7 +7215,7 @@
         <v>323</v>
       </c>
       <c r="N163" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="164" spans="3:14">
@@ -7184,7 +7223,7 @@
         <v>324</v>
       </c>
       <c r="N164" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="165" spans="3:14">
@@ -7192,7 +7231,7 @@
         <v>325</v>
       </c>
       <c r="N165" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="166" spans="3:14">
@@ -7200,7 +7239,7 @@
         <v>326</v>
       </c>
       <c r="N166" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="167" spans="3:14">
@@ -7208,7 +7247,7 @@
         <v>327</v>
       </c>
       <c r="N167" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="168" spans="3:14">
@@ -7216,7 +7255,7 @@
         <v>328</v>
       </c>
       <c r="N168" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="169" spans="3:14">
@@ -7224,7 +7263,7 @@
         <v>329</v>
       </c>
       <c r="N169" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="170" spans="3:14">
@@ -7232,7 +7271,7 @@
         <v>330</v>
       </c>
       <c r="N170" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="171" spans="3:14">
@@ -7240,7 +7279,7 @@
         <v>331</v>
       </c>
       <c r="N171" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="172" spans="3:14">
@@ -7248,7 +7287,7 @@
         <v>332</v>
       </c>
       <c r="N172" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="173" spans="3:14">
@@ -7256,7 +7295,7 @@
         <v>333</v>
       </c>
       <c r="N173" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="174" spans="3:14">
@@ -7264,7 +7303,7 @@
         <v>334</v>
       </c>
       <c r="N174" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="175" spans="3:14">
@@ -7272,7 +7311,7 @@
         <v>335</v>
       </c>
       <c r="N175" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="176" spans="3:14">
@@ -7280,7 +7319,7 @@
         <v>336</v>
       </c>
       <c r="N176" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="177" spans="3:14">
@@ -7288,7 +7327,7 @@
         <v>337</v>
       </c>
       <c r="N177" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="178" spans="3:14">
@@ -7296,7 +7335,7 @@
         <v>338</v>
       </c>
       <c r="N178" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="179" spans="3:14">
@@ -7304,7 +7343,7 @@
         <v>339</v>
       </c>
       <c r="N179" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="180" spans="3:14">
@@ -7312,7 +7351,7 @@
         <v>340</v>
       </c>
       <c r="N180" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="181" spans="3:14">
@@ -7320,7 +7359,7 @@
         <v>341</v>
       </c>
       <c r="N181" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="182" spans="3:14">
@@ -7328,7 +7367,7 @@
         <v>342</v>
       </c>
       <c r="N182" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="183" spans="3:14">
@@ -7336,7 +7375,7 @@
         <v>343</v>
       </c>
       <c r="N183" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="184" spans="3:14">
@@ -7344,7 +7383,7 @@
         <v>344</v>
       </c>
       <c r="N184" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="185" spans="3:14">
@@ -7352,7 +7391,7 @@
         <v>345</v>
       </c>
       <c r="N185" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="186" spans="3:14">
@@ -7360,7 +7399,7 @@
         <v>346</v>
       </c>
       <c r="N186" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="187" spans="3:14">
@@ -7368,7 +7407,7 @@
         <v>347</v>
       </c>
       <c r="N187" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="188" spans="3:14">
@@ -7376,7 +7415,7 @@
         <v>348</v>
       </c>
       <c r="N188" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="189" spans="3:14">
@@ -7384,7 +7423,7 @@
         <v>349</v>
       </c>
       <c r="N189" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="190" spans="3:14">
@@ -7392,7 +7431,7 @@
         <v>350</v>
       </c>
       <c r="N190" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="191" spans="3:14">
@@ -7400,7 +7439,7 @@
         <v>351</v>
       </c>
       <c r="N191" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="192" spans="3:14">
@@ -7408,7 +7447,7 @@
         <v>352</v>
       </c>
       <c r="N192" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="193" spans="3:14">
@@ -7416,7 +7455,7 @@
         <v>353</v>
       </c>
       <c r="N193" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="194" spans="3:14">
@@ -7424,7 +7463,7 @@
         <v>354</v>
       </c>
       <c r="N194" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="195" spans="3:14">
@@ -7432,7 +7471,7 @@
         <v>355</v>
       </c>
       <c r="N195" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="196" spans="3:14">
@@ -7440,7 +7479,7 @@
         <v>356</v>
       </c>
       <c r="N196" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="197" spans="3:14">
@@ -7448,7 +7487,7 @@
         <v>357</v>
       </c>
       <c r="N197" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="198" spans="3:14">
@@ -7456,7 +7495,7 @@
         <v>358</v>
       </c>
       <c r="N198" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="199" spans="3:14">
@@ -7464,7 +7503,7 @@
         <v>359</v>
       </c>
       <c r="N199" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="200" spans="3:14">
@@ -7472,7 +7511,7 @@
         <v>360</v>
       </c>
       <c r="N200" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="201" spans="3:14">
@@ -7480,7 +7519,7 @@
         <v>361</v>
       </c>
       <c r="N201" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="202" spans="3:14">
@@ -7488,7 +7527,7 @@
         <v>362</v>
       </c>
       <c r="N202" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="203" spans="3:14">
@@ -7496,7 +7535,7 @@
         <v>363</v>
       </c>
       <c r="N203" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="204" spans="3:14">
@@ -7504,7 +7543,7 @@
         <v>364</v>
       </c>
       <c r="N204" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="205" spans="3:14">
@@ -7512,7 +7551,7 @@
         <v>365</v>
       </c>
       <c r="N205" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="206" spans="3:14">
@@ -7520,7 +7559,7 @@
         <v>366</v>
       </c>
       <c r="N206" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="207" spans="3:14">
@@ -7528,7 +7567,7 @@
         <v>367</v>
       </c>
       <c r="N207" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="208" spans="3:14">
@@ -7536,7 +7575,7 @@
         <v>368</v>
       </c>
       <c r="N208" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="209" spans="3:14">
@@ -7544,7 +7583,7 @@
         <v>369</v>
       </c>
       <c r="N209" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="210" spans="3:14">
@@ -7552,7 +7591,7 @@
         <v>370</v>
       </c>
       <c r="N210" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="211" spans="3:14">
@@ -7560,7 +7599,7 @@
         <v>371</v>
       </c>
       <c r="N211" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="212" spans="3:14">
@@ -7568,7 +7607,7 @@
         <v>372</v>
       </c>
       <c r="N212" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="213" spans="3:14">
@@ -7576,7 +7615,7 @@
         <v>373</v>
       </c>
       <c r="N213" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="214" spans="3:14">
@@ -7584,7 +7623,7 @@
         <v>374</v>
       </c>
       <c r="N214" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="215" spans="3:14">
@@ -7592,7 +7631,7 @@
         <v>375</v>
       </c>
       <c r="N215" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="216" spans="3:14">
@@ -7600,7 +7639,7 @@
         <v>376</v>
       </c>
       <c r="N216" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="217" spans="3:14">
@@ -7608,7 +7647,7 @@
         <v>377</v>
       </c>
       <c r="N217" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="218" spans="3:14">
@@ -7616,7 +7655,7 @@
         <v>378</v>
       </c>
       <c r="N218" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="219" spans="3:14">
@@ -7624,7 +7663,7 @@
         <v>379</v>
       </c>
       <c r="N219" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="220" spans="3:14">
@@ -7632,7 +7671,7 @@
         <v>380</v>
       </c>
       <c r="N220" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="221" spans="3:14">
@@ -7640,7 +7679,7 @@
         <v>381</v>
       </c>
       <c r="N221" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="222" spans="3:14">
@@ -7648,7 +7687,7 @@
         <v>382</v>
       </c>
       <c r="N222" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="223" spans="3:14">
@@ -7656,7 +7695,7 @@
         <v>383</v>
       </c>
       <c r="N223" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="224" spans="3:14">
@@ -7664,7 +7703,7 @@
         <v>384</v>
       </c>
       <c r="N224" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="225" spans="3:14">
@@ -7672,7 +7711,7 @@
         <v>385</v>
       </c>
       <c r="N225" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="226" spans="3:14">
@@ -7680,7 +7719,7 @@
         <v>386</v>
       </c>
       <c r="N226" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="227" spans="3:14">
@@ -7688,7 +7727,7 @@
         <v>387</v>
       </c>
       <c r="N227" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="228" spans="3:14">
@@ -7696,7 +7735,7 @@
         <v>388</v>
       </c>
       <c r="N228" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="229" spans="3:14">
@@ -7704,7 +7743,7 @@
         <v>389</v>
       </c>
       <c r="N229" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="230" spans="3:14">
@@ -7712,7 +7751,7 @@
         <v>390</v>
       </c>
       <c r="N230" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="231" spans="3:14">
@@ -7720,7 +7759,7 @@
         <v>391</v>
       </c>
       <c r="N231" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="232" spans="3:14">
@@ -7728,7 +7767,7 @@
         <v>392</v>
       </c>
       <c r="N232" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="233" spans="3:14">
@@ -7736,7 +7775,7 @@
         <v>393</v>
       </c>
       <c r="N233" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="234" spans="3:14">
@@ -7744,7 +7783,7 @@
         <v>394</v>
       </c>
       <c r="N234" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="235" spans="3:14">
@@ -7752,7 +7791,7 @@
         <v>395</v>
       </c>
       <c r="N235" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="236" spans="3:14">
@@ -7760,7 +7799,7 @@
         <v>396</v>
       </c>
       <c r="N236" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="237" spans="3:14">
@@ -7768,7 +7807,7 @@
         <v>397</v>
       </c>
       <c r="N237" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="238" spans="3:14">
@@ -7776,7 +7815,7 @@
         <v>398</v>
       </c>
       <c r="N238" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="239" spans="3:14">
@@ -7784,7 +7823,7 @@
         <v>399</v>
       </c>
       <c r="N239" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="240" spans="3:14">
@@ -7792,7 +7831,7 @@
         <v>400</v>
       </c>
       <c r="N240" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="241" spans="3:14">
@@ -7800,7 +7839,7 @@
         <v>401</v>
       </c>
       <c r="N241" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="242" spans="3:14">
@@ -7808,7 +7847,7 @@
         <v>402</v>
       </c>
       <c r="N242" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="243" spans="3:14">
@@ -7816,7 +7855,7 @@
         <v>403</v>
       </c>
       <c r="N243" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="244" spans="3:14">
@@ -7824,7 +7863,7 @@
         <v>404</v>
       </c>
       <c r="N244" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="245" spans="3:14">
@@ -7832,7 +7871,7 @@
         <v>405</v>
       </c>
       <c r="N245" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="246" spans="3:14">
@@ -7840,7 +7879,7 @@
         <v>406</v>
       </c>
       <c r="N246" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="247" spans="3:14">
@@ -7848,7 +7887,7 @@
         <v>407</v>
       </c>
       <c r="N247" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="248" spans="3:14">
@@ -7856,7 +7895,7 @@
         <v>408</v>
       </c>
       <c r="N248" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="249" spans="3:14">
@@ -7864,7 +7903,7 @@
         <v>409</v>
       </c>
       <c r="N249" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="250" spans="3:14">
@@ -7872,7 +7911,7 @@
         <v>410</v>
       </c>
       <c r="N250" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="251" spans="3:14">
@@ -7880,7 +7919,7 @@
         <v>411</v>
       </c>
       <c r="N251" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="252" spans="3:14">
@@ -7888,7 +7927,7 @@
         <v>412</v>
       </c>
       <c r="N252" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="253" spans="3:14">
@@ -7896,7 +7935,7 @@
         <v>413</v>
       </c>
       <c r="N253" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="254" spans="3:14">
@@ -7904,7 +7943,7 @@
         <v>414</v>
       </c>
       <c r="N254" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="255" spans="3:14">
@@ -7912,7 +7951,7 @@
         <v>415</v>
       </c>
       <c r="N255" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="256" spans="3:14">
@@ -7920,7 +7959,7 @@
         <v>416</v>
       </c>
       <c r="N256" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="257" spans="3:14">
@@ -7928,7 +7967,7 @@
         <v>417</v>
       </c>
       <c r="N257" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="258" spans="3:14">
@@ -7936,7 +7975,7 @@
         <v>418</v>
       </c>
       <c r="N258" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="259" spans="3:14">
@@ -7944,7 +7983,7 @@
         <v>419</v>
       </c>
       <c r="N259" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="260" spans="3:14">
@@ -7952,7 +7991,7 @@
         <v>420</v>
       </c>
       <c r="N260" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="261" spans="3:14">
@@ -7960,7 +7999,7 @@
         <v>421</v>
       </c>
       <c r="N261" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="262" spans="3:14">
@@ -7968,7 +8007,7 @@
         <v>422</v>
       </c>
       <c r="N262" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="263" spans="3:14">
@@ -7976,7 +8015,7 @@
         <v>423</v>
       </c>
       <c r="N263" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="264" spans="3:14">
@@ -7984,7 +8023,7 @@
         <v>424</v>
       </c>
       <c r="N264" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="265" spans="3:14">
@@ -7992,7 +8031,7 @@
         <v>425</v>
       </c>
       <c r="N265" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="266" spans="3:14">
@@ -8000,7 +8039,7 @@
         <v>426</v>
       </c>
       <c r="N266" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="267" spans="3:14">
@@ -8008,7 +8047,7 @@
         <v>427</v>
       </c>
       <c r="N267" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="268" spans="3:14">
@@ -8016,7 +8055,7 @@
         <v>428</v>
       </c>
       <c r="N268" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="269" spans="3:14">
@@ -8024,7 +8063,7 @@
         <v>429</v>
       </c>
       <c r="N269" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="270" spans="3:14">
@@ -8032,7 +8071,7 @@
         <v>430</v>
       </c>
       <c r="N270" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="271" spans="3:14">
@@ -8040,7 +8079,7 @@
         <v>431</v>
       </c>
       <c r="N271" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="272" spans="3:14">
@@ -8048,7 +8087,7 @@
         <v>432</v>
       </c>
       <c r="N272" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="273" spans="3:14">
@@ -8056,7 +8095,7 @@
         <v>433</v>
       </c>
       <c r="N273" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="274" spans="3:14">
@@ -8064,7 +8103,7 @@
         <v>434</v>
       </c>
       <c r="N274" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="275" spans="3:14">
@@ -8072,7 +8111,7 @@
         <v>435</v>
       </c>
       <c r="N275" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="276" spans="3:14">
@@ -8080,7 +8119,7 @@
         <v>436</v>
       </c>
       <c r="N276" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="277" spans="3:14">
@@ -8088,7 +8127,7 @@
         <v>437</v>
       </c>
       <c r="N277" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="278" spans="3:14">
@@ -8096,7 +8135,7 @@
         <v>438</v>
       </c>
       <c r="N278" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="279" spans="3:14">
@@ -8104,7 +8143,7 @@
         <v>439</v>
       </c>
       <c r="N279" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="280" spans="3:14">
@@ -8112,7 +8151,7 @@
         <v>440</v>
       </c>
       <c r="N280" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="281" spans="3:14">
@@ -8120,7 +8159,7 @@
         <v>441</v>
       </c>
       <c r="N281" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="282" spans="3:14">
@@ -8128,7 +8167,7 @@
         <v>442</v>
       </c>
       <c r="N282" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="283" spans="3:14">
@@ -8136,7 +8175,7 @@
         <v>443</v>
       </c>
       <c r="N283" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="284" spans="3:14">
@@ -8144,7 +8183,7 @@
         <v>444</v>
       </c>
       <c r="N284" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="285" spans="3:14">
@@ -8152,7 +8191,7 @@
         <v>445</v>
       </c>
       <c r="N285" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="286" spans="3:14">
@@ -8160,7 +8199,7 @@
         <v>446</v>
       </c>
       <c r="N286" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="287" spans="3:14">
@@ -8168,7 +8207,7 @@
         <v>447</v>
       </c>
       <c r="N287" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="288" spans="3:14">
@@ -8176,7 +8215,7 @@
         <v>448</v>
       </c>
       <c r="N288" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="289" spans="3:14">
@@ -8184,7 +8223,7 @@
         <v>449</v>
       </c>
       <c r="N289" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="290" spans="3:14">
@@ -8192,7 +8231,7 @@
         <v>450</v>
       </c>
       <c r="N290" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="291" spans="3:14">
@@ -8200,7 +8239,7 @@
         <v>451</v>
       </c>
       <c r="N291" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="292" spans="3:14">
@@ -8208,7 +8247,7 @@
         <v>452</v>
       </c>
       <c r="N292" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="293" spans="3:14">
@@ -8216,7 +8255,7 @@
         <v>453</v>
       </c>
       <c r="N293" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="294" spans="3:14">
@@ -8224,7 +8263,7 @@
         <v>454</v>
       </c>
       <c r="N294" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="295" spans="3:14">
@@ -8232,7 +8271,7 @@
         <v>455</v>
       </c>
       <c r="N295" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="296" spans="3:14">
@@ -8240,7 +8279,7 @@
         <v>456</v>
       </c>
       <c r="N296" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="297" spans="3:14">
@@ -8248,7 +8287,7 @@
         <v>457</v>
       </c>
       <c r="N297" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="298" spans="3:14">
@@ -8256,7 +8295,7 @@
         <v>458</v>
       </c>
       <c r="N298" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="299" spans="3:14">
@@ -8264,7 +8303,7 @@
         <v>459</v>
       </c>
       <c r="N299" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="300" spans="3:14">
@@ -8272,7 +8311,7 @@
         <v>460</v>
       </c>
       <c r="N300" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="301" spans="3:14">
@@ -8280,7 +8319,7 @@
         <v>461</v>
       </c>
       <c r="N301" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="302" spans="3:14">
@@ -8288,7 +8327,7 @@
         <v>462</v>
       </c>
       <c r="N302" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="303" spans="3:14">
@@ -8296,7 +8335,7 @@
         <v>463</v>
       </c>
       <c r="N303" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="304" spans="3:14">
@@ -8304,7 +8343,7 @@
         <v>464</v>
       </c>
       <c r="N304" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="305" spans="3:14">
@@ -8312,7 +8351,7 @@
         <v>465</v>
       </c>
       <c r="N305" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="306" spans="3:14">
@@ -8320,7 +8359,7 @@
         <v>466</v>
       </c>
       <c r="N306" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="307" spans="3:14">
@@ -8328,7 +8367,7 @@
         <v>467</v>
       </c>
       <c r="N307" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="308" spans="3:14">
@@ -8336,7 +8375,7 @@
         <v>468</v>
       </c>
       <c r="N308" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="309" spans="3:14">
@@ -8344,7 +8383,7 @@
         <v>469</v>
       </c>
       <c r="N309" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="310" spans="3:14">
@@ -8352,7 +8391,7 @@
         <v>470</v>
       </c>
       <c r="N310" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="311" spans="3:14">
@@ -8360,7 +8399,7 @@
         <v>471</v>
       </c>
       <c r="N311" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="312" spans="3:14">
@@ -8368,7 +8407,7 @@
         <v>472</v>
       </c>
       <c r="N312" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="313" spans="3:14">
@@ -8376,7 +8415,7 @@
         <v>473</v>
       </c>
       <c r="N313" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="314" spans="3:14">
@@ -8384,7 +8423,7 @@
         <v>474</v>
       </c>
       <c r="N314" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="315" spans="3:14">
@@ -8392,7 +8431,7 @@
         <v>475</v>
       </c>
       <c r="N315" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="316" spans="3:14">
@@ -8400,7 +8439,7 @@
         <v>476</v>
       </c>
       <c r="N316" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="317" spans="3:14">
@@ -8408,7 +8447,7 @@
         <v>477</v>
       </c>
       <c r="N317" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="318" spans="3:14">
@@ -8416,7 +8455,7 @@
         <v>478</v>
       </c>
       <c r="N318" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="319" spans="3:14">
@@ -8424,7 +8463,7 @@
         <v>479</v>
       </c>
       <c r="N319" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="320" spans="3:14">
@@ -8432,7 +8471,7 @@
         <v>480</v>
       </c>
       <c r="N320" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="321" spans="3:14">
@@ -8440,7 +8479,7 @@
         <v>481</v>
       </c>
       <c r="N321" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="322" spans="3:14">
@@ -8448,7 +8487,7 @@
         <v>482</v>
       </c>
       <c r="N322" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="323" spans="3:14">
@@ -8456,7 +8495,7 @@
         <v>483</v>
       </c>
       <c r="N323" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="324" spans="3:14">
@@ -8464,7 +8503,7 @@
         <v>484</v>
       </c>
       <c r="N324" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="325" spans="3:14">
@@ -8472,7 +8511,7 @@
         <v>485</v>
       </c>
       <c r="N325" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="326" spans="3:14">
@@ -8480,7 +8519,7 @@
         <v>486</v>
       </c>
       <c r="N326" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="327" spans="3:14">
@@ -8488,7 +8527,7 @@
         <v>487</v>
       </c>
       <c r="N327" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="328" spans="3:14">
@@ -8496,7 +8535,7 @@
         <v>488</v>
       </c>
       <c r="N328" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="329" spans="3:14">
@@ -8504,7 +8543,7 @@
         <v>489</v>
       </c>
       <c r="N329" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="330" spans="3:14">
@@ -8512,7 +8551,7 @@
         <v>490</v>
       </c>
       <c r="N330" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="331" spans="3:14">
@@ -8520,7 +8559,7 @@
         <v>491</v>
       </c>
       <c r="N331" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="332" spans="3:14">
@@ -8528,7 +8567,7 @@
         <v>492</v>
       </c>
       <c r="N332" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="333" spans="3:14">
@@ -8536,7 +8575,7 @@
         <v>493</v>
       </c>
       <c r="N333" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="334" spans="3:14">
@@ -8544,7 +8583,7 @@
         <v>494</v>
       </c>
       <c r="N334" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="335" spans="3:14">
@@ -8552,7 +8591,7 @@
         <v>495</v>
       </c>
       <c r="N335" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="336" spans="3:14">
@@ -8560,7 +8599,7 @@
         <v>496</v>
       </c>
       <c r="N336" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="337" spans="3:14">
@@ -8568,7 +8607,7 @@
         <v>497</v>
       </c>
       <c r="N337" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="338" spans="3:14">
@@ -8576,7 +8615,7 @@
         <v>498</v>
       </c>
       <c r="N338" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="339" spans="3:14">
@@ -8584,7 +8623,7 @@
         <v>499</v>
       </c>
       <c r="N339" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="340" spans="3:14">
@@ -8592,7 +8631,7 @@
         <v>500</v>
       </c>
       <c r="N340" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="341" spans="3:14">
@@ -8600,7 +8639,7 @@
         <v>501</v>
       </c>
       <c r="N341" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="342" spans="3:14">
@@ -8608,7 +8647,7 @@
         <v>502</v>
       </c>
       <c r="N342" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="343" spans="3:14">
@@ -8616,7 +8655,7 @@
         <v>503</v>
       </c>
       <c r="N343" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="344" spans="3:14">
@@ -8624,7 +8663,7 @@
         <v>504</v>
       </c>
       <c r="N344" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="345" spans="3:14">
@@ -8632,7 +8671,7 @@
         <v>505</v>
       </c>
       <c r="N345" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="346" spans="3:14">
@@ -8640,7 +8679,7 @@
         <v>506</v>
       </c>
       <c r="N346" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="347" spans="3:14">
@@ -8648,7 +8687,7 @@
         <v>507</v>
       </c>
       <c r="N347" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="348" spans="3:14">
@@ -8656,7 +8695,7 @@
         <v>508</v>
       </c>
       <c r="N348" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="349" spans="3:14">
@@ -8664,7 +8703,7 @@
         <v>509</v>
       </c>
       <c r="N349" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="350" spans="3:14">
@@ -8672,7 +8711,7 @@
         <v>510</v>
       </c>
       <c r="N350" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="351" spans="3:14">
@@ -8680,7 +8719,7 @@
         <v>511</v>
       </c>
       <c r="N351" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="352" spans="3:14">
@@ -8688,7 +8727,7 @@
         <v>512</v>
       </c>
       <c r="N352" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="353" spans="3:14">
@@ -8696,7 +8735,7 @@
         <v>513</v>
       </c>
       <c r="N353" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="354" spans="3:14">
@@ -8704,7 +8743,7 @@
         <v>514</v>
       </c>
       <c r="N354" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="355" spans="3:14">
@@ -8712,7 +8751,7 @@
         <v>515</v>
       </c>
       <c r="N355" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="356" spans="3:14">
@@ -8720,7 +8759,7 @@
         <v>516</v>
       </c>
       <c r="N356" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="357" spans="3:14">
@@ -8728,7 +8767,7 @@
         <v>517</v>
       </c>
       <c r="N357" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="358" spans="3:14">
@@ -8736,7 +8775,7 @@
         <v>518</v>
       </c>
       <c r="N358" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="359" spans="3:14">
@@ -8744,7 +8783,7 @@
         <v>519</v>
       </c>
       <c r="N359" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="360" spans="3:14">
@@ -8752,7 +8791,7 @@
         <v>520</v>
       </c>
       <c r="N360" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="361" spans="3:14">
@@ -8760,7 +8799,7 @@
         <v>521</v>
       </c>
       <c r="N361" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="362" spans="3:14">
@@ -8768,7 +8807,7 @@
         <v>522</v>
       </c>
       <c r="N362" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="363" spans="3:14">
@@ -8776,7 +8815,7 @@
         <v>523</v>
       </c>
       <c r="N363" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="364" spans="3:14">
@@ -8784,7 +8823,7 @@
         <v>524</v>
       </c>
       <c r="N364" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="365" spans="3:14">
@@ -8792,7 +8831,7 @@
         <v>525</v>
       </c>
       <c r="N365" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="366" spans="3:14">
@@ -8800,7 +8839,7 @@
         <v>526</v>
       </c>
       <c r="N366" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="367" spans="3:14">
@@ -8808,7 +8847,7 @@
         <v>527</v>
       </c>
       <c r="N367" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="368" spans="3:14">
@@ -8816,7 +8855,7 @@
         <v>528</v>
       </c>
       <c r="N368" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="369" spans="3:14">
@@ -8824,7 +8863,7 @@
         <v>529</v>
       </c>
       <c r="N369" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="370" spans="3:14">
@@ -8832,7 +8871,7 @@
         <v>530</v>
       </c>
       <c r="N370" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="371" spans="3:14">
@@ -8840,7 +8879,7 @@
         <v>531</v>
       </c>
       <c r="N371" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="372" spans="3:14">
@@ -8848,7 +8887,7 @@
         <v>532</v>
       </c>
       <c r="N372" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="373" spans="3:14">
@@ -8856,7 +8895,7 @@
         <v>533</v>
       </c>
       <c r="N373" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="374" spans="3:14">
@@ -8864,7 +8903,7 @@
         <v>534</v>
       </c>
       <c r="N374" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="375" spans="3:14">
@@ -8872,7 +8911,7 @@
         <v>535</v>
       </c>
       <c r="N375" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="376" spans="3:14">
@@ -8880,7 +8919,7 @@
         <v>536</v>
       </c>
       <c r="N376" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="377" spans="3:14">
@@ -8888,7 +8927,7 @@
         <v>537</v>
       </c>
       <c r="N377" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="378" spans="3:14">
@@ -8896,7 +8935,7 @@
         <v>538</v>
       </c>
       <c r="N378" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="379" spans="3:14">
@@ -8904,7 +8943,7 @@
         <v>539</v>
       </c>
       <c r="N379" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="380" spans="3:14">
@@ -8912,7 +8951,7 @@
         <v>540</v>
       </c>
       <c r="N380" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="381" spans="3:14">
@@ -8920,7 +8959,7 @@
         <v>541</v>
       </c>
       <c r="N381" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="382" spans="3:14">
@@ -8928,7 +8967,7 @@
         <v>542</v>
       </c>
       <c r="N382" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="383" spans="3:14">
@@ -8936,7 +8975,7 @@
         <v>543</v>
       </c>
       <c r="N383" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="384" spans="3:14">
@@ -8944,7 +8983,7 @@
         <v>544</v>
       </c>
       <c r="N384" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="385" spans="3:14">
@@ -8952,7 +8991,7 @@
         <v>545</v>
       </c>
       <c r="N385" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="386" spans="3:14">
@@ -8960,7 +8999,7 @@
         <v>546</v>
       </c>
       <c r="N386" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="387" spans="3:14">
@@ -8968,7 +9007,7 @@
         <v>547</v>
       </c>
       <c r="N387" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="388" spans="3:14">
@@ -8976,7 +9015,7 @@
         <v>548</v>
       </c>
       <c r="N388" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="389" spans="3:14">
@@ -8984,7 +9023,7 @@
         <v>549</v>
       </c>
       <c r="N389" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="390" spans="3:14">
@@ -8992,7 +9031,7 @@
         <v>550</v>
       </c>
       <c r="N390" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="391" spans="3:14">
@@ -9000,7 +9039,7 @@
         <v>551</v>
       </c>
       <c r="N391" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="392" spans="3:14">
@@ -9008,7 +9047,7 @@
         <v>552</v>
       </c>
       <c r="N392" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="393" spans="3:14">
@@ -9016,7 +9055,7 @@
         <v>553</v>
       </c>
       <c r="N393" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="394" spans="3:14">
@@ -9024,7 +9063,7 @@
         <v>554</v>
       </c>
       <c r="N394" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="395" spans="3:14">
@@ -9032,7 +9071,7 @@
         <v>555</v>
       </c>
       <c r="N395" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="396" spans="3:14">
@@ -9040,7 +9079,7 @@
         <v>556</v>
       </c>
       <c r="N396" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="397" spans="3:14">
@@ -9048,7 +9087,7 @@
         <v>557</v>
       </c>
       <c r="N397" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="398" spans="3:14">
@@ -9056,7 +9095,7 @@
         <v>558</v>
       </c>
       <c r="N398" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="399" spans="3:14">
@@ -9064,7 +9103,7 @@
         <v>559</v>
       </c>
       <c r="N399" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="400" spans="3:14">
@@ -9072,7 +9111,7 @@
         <v>560</v>
       </c>
       <c r="N400" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="401" spans="3:14">
@@ -9080,7 +9119,7 @@
         <v>561</v>
       </c>
       <c r="N401" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="402" spans="3:14">
@@ -9088,7 +9127,7 @@
         <v>562</v>
       </c>
       <c r="N402" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="403" spans="3:14">
@@ -9096,7 +9135,7 @@
         <v>563</v>
       </c>
       <c r="N403" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="404" spans="3:14">
@@ -9104,7 +9143,7 @@
         <v>564</v>
       </c>
       <c r="N404" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="405" spans="3:14">
@@ -9112,7 +9151,7 @@
         <v>565</v>
       </c>
       <c r="N405" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="406" spans="3:14">
@@ -9120,7 +9159,7 @@
         <v>566</v>
       </c>
       <c r="N406" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="407" spans="3:14">
@@ -9128,7 +9167,7 @@
         <v>567</v>
       </c>
       <c r="N407" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="408" spans="3:14">
@@ -9136,7 +9175,7 @@
         <v>568</v>
       </c>
       <c r="N408" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="409" spans="3:14">
@@ -9144,7 +9183,7 @@
         <v>569</v>
       </c>
       <c r="N409" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="410" spans="3:14">
@@ -9152,7 +9191,7 @@
         <v>570</v>
       </c>
       <c r="N410" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="411" spans="3:14">
@@ -9160,7 +9199,7 @@
         <v>571</v>
       </c>
       <c r="N411" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="412" spans="3:14">
@@ -9168,7 +9207,7 @@
         <v>572</v>
       </c>
       <c r="N412" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="413" spans="3:14">
@@ -9176,7 +9215,7 @@
         <v>573</v>
       </c>
       <c r="N413" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="414" spans="3:14">
@@ -9184,7 +9223,7 @@
         <v>574</v>
       </c>
       <c r="N414" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="415" spans="3:14">
@@ -9192,7 +9231,7 @@
         <v>575</v>
       </c>
       <c r="N415" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="416" spans="3:14">
@@ -9200,7 +9239,7 @@
         <v>576</v>
       </c>
       <c r="N416" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="417" spans="3:14">
@@ -9208,7 +9247,7 @@
         <v>577</v>
       </c>
       <c r="N417" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="418" spans="3:14">
@@ -9216,7 +9255,7 @@
         <v>578</v>
       </c>
       <c r="N418" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="419" spans="3:14">
@@ -9224,7 +9263,7 @@
         <v>579</v>
       </c>
       <c r="N419" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="420" spans="3:14">
@@ -9232,7 +9271,7 @@
         <v>580</v>
       </c>
       <c r="N420" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="421" spans="3:14">
@@ -9240,7 +9279,7 @@
         <v>581</v>
       </c>
       <c r="N421" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="422" spans="3:14">
@@ -9248,7 +9287,7 @@
         <v>582</v>
       </c>
       <c r="N422" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="423" spans="3:14">
@@ -9256,7 +9295,7 @@
         <v>583</v>
       </c>
       <c r="N423" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="424" spans="3:14">
@@ -9264,7 +9303,7 @@
         <v>584</v>
       </c>
       <c r="N424" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="425" spans="3:14">
@@ -9272,7 +9311,7 @@
         <v>585</v>
       </c>
       <c r="N425" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="426" spans="3:14">
@@ -9280,7 +9319,7 @@
         <v>586</v>
       </c>
       <c r="N426" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="427" spans="3:14">
@@ -9288,7 +9327,7 @@
         <v>587</v>
       </c>
       <c r="N427" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="428" spans="3:14">
@@ -9296,7 +9335,7 @@
         <v>588</v>
       </c>
       <c r="N428" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="429" spans="3:14">
@@ -9304,7 +9343,7 @@
         <v>589</v>
       </c>
       <c r="N429" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="430" spans="3:14">
@@ -9312,7 +9351,7 @@
         <v>590</v>
       </c>
       <c r="N430" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="431" spans="3:14">
@@ -9320,7 +9359,7 @@
         <v>591</v>
       </c>
       <c r="N431" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="432" spans="3:14">
@@ -9328,7 +9367,7 @@
         <v>592</v>
       </c>
       <c r="N432" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="433" spans="3:14">
@@ -9336,7 +9375,7 @@
         <v>593</v>
       </c>
       <c r="N433" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="434" spans="3:14">
@@ -9344,7 +9383,7 @@
         <v>594</v>
       </c>
       <c r="N434" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="435" spans="3:14">
@@ -9352,7 +9391,7 @@
         <v>595</v>
       </c>
       <c r="N435" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="436" spans="3:14">
@@ -9360,7 +9399,7 @@
         <v>596</v>
       </c>
       <c r="N436" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="437" spans="3:14">
@@ -9368,7 +9407,7 @@
         <v>597</v>
       </c>
       <c r="N437" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="438" spans="3:14">
@@ -9376,7 +9415,7 @@
         <v>598</v>
       </c>
       <c r="N438" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="439" spans="3:14">
@@ -9384,7 +9423,7 @@
         <v>599</v>
       </c>
       <c r="N439" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="440" spans="3:14">
@@ -9392,7 +9431,7 @@
         <v>600</v>
       </c>
       <c r="N440" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="441" spans="3:14">
@@ -9400,7 +9439,7 @@
         <v>601</v>
       </c>
       <c r="N441" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="442" spans="3:14">
@@ -9408,7 +9447,7 @@
         <v>602</v>
       </c>
       <c r="N442" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="443" spans="3:14">
@@ -9416,7 +9455,7 @@
         <v>603</v>
       </c>
       <c r="N443" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="444" spans="3:14">
@@ -9424,7 +9463,7 @@
         <v>604</v>
       </c>
       <c r="N444" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="445" spans="3:14">
@@ -9432,7 +9471,7 @@
         <v>605</v>
       </c>
       <c r="N445" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="446" spans="3:14">
@@ -9440,7 +9479,7 @@
         <v>606</v>
       </c>
       <c r="N446" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="447" spans="3:14">
@@ -9448,7 +9487,7 @@
         <v>607</v>
       </c>
       <c r="N447" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="448" spans="3:14">
@@ -9456,7 +9495,7 @@
         <v>608</v>
       </c>
       <c r="N448" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="449" spans="3:14">
@@ -9464,7 +9503,7 @@
         <v>609</v>
       </c>
       <c r="N449" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="450" spans="3:14">
@@ -9472,7 +9511,7 @@
         <v>610</v>
       </c>
       <c r="N450" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="451" spans="3:14">
@@ -9480,7 +9519,7 @@
         <v>611</v>
       </c>
       <c r="N451" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="452" spans="3:14">
@@ -9488,7 +9527,7 @@
         <v>612</v>
       </c>
       <c r="N452" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="453" spans="3:14">
@@ -9496,7 +9535,7 @@
         <v>613</v>
       </c>
       <c r="N453" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="454" spans="3:14">
@@ -9504,7 +9543,7 @@
         <v>614</v>
       </c>
       <c r="N454" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="455" spans="3:14">
@@ -9512,7 +9551,7 @@
         <v>615</v>
       </c>
       <c r="N455" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="456" spans="3:14">
@@ -9520,7 +9559,7 @@
         <v>616</v>
       </c>
       <c r="N456" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="457" spans="3:14">
@@ -9528,7 +9567,7 @@
         <v>617</v>
       </c>
       <c r="N457" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="458" spans="3:14">
@@ -9536,7 +9575,7 @@
         <v>618</v>
       </c>
       <c r="N458" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="459" spans="3:14">
@@ -9544,7 +9583,7 @@
         <v>619</v>
       </c>
       <c r="N459" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="460" spans="3:14">
@@ -9552,7 +9591,7 @@
         <v>620</v>
       </c>
       <c r="N460" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="461" spans="3:14">
@@ -9560,7 +9599,7 @@
         <v>621</v>
       </c>
       <c r="N461" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="462" spans="3:14">
@@ -9568,7 +9607,7 @@
         <v>622</v>
       </c>
       <c r="N462" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="463" spans="3:14">
@@ -9576,7 +9615,7 @@
         <v>623</v>
       </c>
       <c r="N463" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="464" spans="3:14">
@@ -9584,7 +9623,7 @@
         <v>624</v>
       </c>
       <c r="N464" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="465" spans="3:14">
@@ -9592,7 +9631,7 @@
         <v>625</v>
       </c>
       <c r="N465" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="466" spans="3:14">
@@ -9600,7 +9639,7 @@
         <v>626</v>
       </c>
       <c r="N466" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="467" spans="3:14">
@@ -9608,7 +9647,7 @@
         <v>627</v>
       </c>
       <c r="N467" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="468" spans="3:14">
@@ -9616,7 +9655,7 @@
         <v>628</v>
       </c>
       <c r="N468" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="469" spans="3:14">
@@ -9624,7 +9663,7 @@
         <v>629</v>
       </c>
       <c r="N469" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="470" spans="3:14">
@@ -9632,7 +9671,7 @@
         <v>630</v>
       </c>
       <c r="N470" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="471" spans="3:14">
@@ -9640,7 +9679,7 @@
         <v>631</v>
       </c>
       <c r="N471" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="472" spans="3:14">
@@ -9648,7 +9687,7 @@
         <v>632</v>
       </c>
       <c r="N472" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="473" spans="3:14">
@@ -9656,7 +9695,7 @@
         <v>633</v>
       </c>
       <c r="N473" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="474" spans="3:14">
@@ -9664,7 +9703,7 @@
         <v>634</v>
       </c>
       <c r="N474" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="475" spans="3:14">
@@ -9672,7 +9711,7 @@
         <v>635</v>
       </c>
       <c r="N475" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="476" spans="3:14">
@@ -9680,7 +9719,7 @@
         <v>636</v>
       </c>
       <c r="N476" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="477" spans="3:14">
@@ -9688,7 +9727,7 @@
         <v>637</v>
       </c>
       <c r="N477" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="478" spans="3:14">
@@ -9696,7 +9735,7 @@
         <v>638</v>
       </c>
       <c r="N478" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="479" spans="3:14">
@@ -9704,7 +9743,7 @@
         <v>639</v>
       </c>
       <c r="N479" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="480" spans="3:14">
@@ -9712,7 +9751,7 @@
         <v>640</v>
       </c>
       <c r="N480" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="481" spans="3:14">
@@ -9720,7 +9759,7 @@
         <v>641</v>
       </c>
       <c r="N481" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="482" spans="3:14">
@@ -9728,7 +9767,7 @@
         <v>642</v>
       </c>
       <c r="N482" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="483" spans="3:14">
@@ -9736,7 +9775,7 @@
         <v>643</v>
       </c>
       <c r="N483" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="484" spans="3:14">
@@ -9744,7 +9783,7 @@
         <v>644</v>
       </c>
       <c r="N484" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="485" spans="3:14">
@@ -9752,7 +9791,7 @@
         <v>645</v>
       </c>
       <c r="N485" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="486" spans="3:14">
@@ -9760,7 +9799,7 @@
         <v>646</v>
       </c>
       <c r="N486" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="487" spans="3:14">
@@ -9768,7 +9807,7 @@
         <v>647</v>
       </c>
       <c r="N487" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="488" spans="3:14">
@@ -9776,7 +9815,7 @@
         <v>648</v>
       </c>
       <c r="N488" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="489" spans="3:14">
@@ -9784,7 +9823,7 @@
         <v>649</v>
       </c>
       <c r="N489" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="490" spans="3:14">
@@ -9792,7 +9831,7 @@
         <v>650</v>
       </c>
       <c r="N490" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="491" spans="3:14">
@@ -9800,7 +9839,7 @@
         <v>651</v>
       </c>
       <c r="N491" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="492" spans="3:14">
@@ -9808,7 +9847,7 @@
         <v>652</v>
       </c>
       <c r="N492" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="493" spans="3:14">
@@ -9816,7 +9855,7 @@
         <v>653</v>
       </c>
       <c r="N493" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="494" spans="3:14">
@@ -9824,7 +9863,7 @@
         <v>654</v>
       </c>
       <c r="N494" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="495" spans="3:14">
@@ -9832,7 +9871,7 @@
         <v>655</v>
       </c>
       <c r="N495" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="496" spans="3:14">
@@ -9840,7 +9879,7 @@
         <v>656</v>
       </c>
       <c r="N496" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="497" spans="3:14">
@@ -9848,7 +9887,7 @@
         <v>657</v>
       </c>
       <c r="N497" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="498" spans="3:14">
@@ -9856,7 +9895,7 @@
         <v>658</v>
       </c>
       <c r="N498" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="499" spans="3:14">
@@ -9864,7 +9903,7 @@
         <v>659</v>
       </c>
       <c r="N499" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="500" spans="3:14">
@@ -9872,7 +9911,7 @@
         <v>660</v>
       </c>
       <c r="N500" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="501" spans="3:14">
@@ -9880,7 +9919,7 @@
         <v>661</v>
       </c>
       <c r="N501" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="502" spans="3:14">
@@ -9888,7 +9927,7 @@
         <v>662</v>
       </c>
       <c r="N502" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="503" spans="3:14">
@@ -9896,7 +9935,7 @@
         <v>663</v>
       </c>
       <c r="N503" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="504" spans="3:14">
@@ -9904,7 +9943,7 @@
         <v>664</v>
       </c>
       <c r="N504" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="505" spans="3:14">
@@ -9912,7 +9951,7 @@
         <v>665</v>
       </c>
       <c r="N505" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="506" spans="3:14">
@@ -9920,7 +9959,7 @@
         <v>666</v>
       </c>
       <c r="N506" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="507" spans="3:14">
@@ -9928,7 +9967,7 @@
         <v>667</v>
       </c>
       <c r="N507" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="508" spans="3:14">
@@ -9936,7 +9975,7 @@
         <v>668</v>
       </c>
       <c r="N508" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="509" spans="3:14">
@@ -9944,7 +9983,7 @@
         <v>669</v>
       </c>
       <c r="N509" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="510" spans="3:14">
@@ -9952,7 +9991,7 @@
         <v>670</v>
       </c>
       <c r="N510" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="511" spans="3:14">
@@ -9960,7 +9999,7 @@
         <v>671</v>
       </c>
       <c r="N511" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="512" spans="3:14">
@@ -9968,7 +10007,7 @@
         <v>672</v>
       </c>
       <c r="N512" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="513" spans="3:14">
@@ -9976,7 +10015,7 @@
         <v>673</v>
       </c>
       <c r="N513" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="514" spans="3:14">
@@ -9984,7 +10023,7 @@
         <v>674</v>
       </c>
       <c r="N514" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="515" spans="3:14">
@@ -9992,7 +10031,7 @@
         <v>675</v>
       </c>
       <c r="N515" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="516" spans="3:14">
@@ -10000,7 +10039,7 @@
         <v>676</v>
       </c>
       <c r="N516" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="517" spans="3:14">
@@ -10008,7 +10047,7 @@
         <v>677</v>
       </c>
       <c r="N517" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="518" spans="3:14">
@@ -10016,7 +10055,7 @@
         <v>678</v>
       </c>
       <c r="N518" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="519" spans="3:14">
@@ -10024,7 +10063,7 @@
         <v>679</v>
       </c>
       <c r="N519" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="520" spans="3:14">
@@ -10032,7 +10071,7 @@
         <v>680</v>
       </c>
       <c r="N520" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="521" spans="3:14">
@@ -10040,7 +10079,7 @@
         <v>681</v>
       </c>
       <c r="N521" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="522" spans="3:14">
@@ -10048,7 +10087,7 @@
         <v>682</v>
       </c>
       <c r="N522" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="523" spans="3:14">
@@ -10056,7 +10095,7 @@
         <v>683</v>
       </c>
       <c r="N523" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="524" spans="3:14">
@@ -10064,7 +10103,7 @@
         <v>684</v>
       </c>
       <c r="N524" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="525" spans="3:14">
@@ -10072,7 +10111,7 @@
         <v>685</v>
       </c>
       <c r="N525" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="526" spans="3:14">
@@ -10080,7 +10119,7 @@
         <v>686</v>
       </c>
       <c r="N526" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="527" spans="3:14">
@@ -10088,7 +10127,7 @@
         <v>687</v>
       </c>
       <c r="N527" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="528" spans="3:14">
@@ -10096,7 +10135,7 @@
         <v>688</v>
       </c>
       <c r="N528" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="529" spans="3:14">
@@ -10104,7 +10143,7 @@
         <v>689</v>
       </c>
       <c r="N529" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="530" spans="3:14">
@@ -10112,7 +10151,7 @@
         <v>690</v>
       </c>
       <c r="N530" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="531" spans="3:14">
@@ -10120,7 +10159,7 @@
         <v>691</v>
       </c>
       <c r="N531" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="532" spans="3:14">
@@ -10128,7 +10167,7 @@
         <v>692</v>
       </c>
       <c r="N532" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="533" spans="3:14">
@@ -10136,7 +10175,7 @@
         <v>693</v>
       </c>
       <c r="N533" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="534" spans="3:14">
@@ -10144,7 +10183,7 @@
         <v>694</v>
       </c>
       <c r="N534" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="535" spans="3:14">
@@ -10152,7 +10191,7 @@
         <v>695</v>
       </c>
       <c r="N535" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="536" spans="3:14">
@@ -10160,7 +10199,7 @@
         <v>696</v>
       </c>
       <c r="N536" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="537" spans="3:14">
@@ -10168,7 +10207,7 @@
         <v>697</v>
       </c>
       <c r="N537" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="538" spans="3:14">
@@ -10176,7 +10215,7 @@
         <v>698</v>
       </c>
       <c r="N538" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="539" spans="3:14">
@@ -10184,7 +10223,7 @@
         <v>699</v>
       </c>
       <c r="N539" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="540" spans="3:14">
@@ -10192,7 +10231,7 @@
         <v>700</v>
       </c>
       <c r="N540" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="541" spans="3:14">
@@ -10200,7 +10239,7 @@
         <v>701</v>
       </c>
       <c r="N541" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="542" spans="3:14">
@@ -10208,7 +10247,7 @@
         <v>702</v>
       </c>
       <c r="N542" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="543" spans="3:14">
@@ -10216,7 +10255,7 @@
         <v>703</v>
       </c>
       <c r="N543" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="544" spans="3:14">
@@ -10224,7 +10263,7 @@
         <v>704</v>
       </c>
       <c r="N544" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="545" spans="3:14">
@@ -10232,7 +10271,7 @@
         <v>705</v>
       </c>
       <c r="N545" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="546" spans="3:14">
@@ -10240,7 +10279,7 @@
         <v>706</v>
       </c>
       <c r="N546" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="547" spans="3:14">
@@ -10248,7 +10287,7 @@
         <v>707</v>
       </c>
       <c r="N547" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="548" spans="3:14">
@@ -10256,7 +10295,7 @@
         <v>708</v>
       </c>
       <c r="N548" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="549" spans="3:14">
@@ -10264,7 +10303,7 @@
         <v>709</v>
       </c>
       <c r="N549" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="550" spans="3:14">
@@ -10272,7 +10311,7 @@
         <v>710</v>
       </c>
       <c r="N550" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="551" spans="3:14">
@@ -10280,7 +10319,7 @@
         <v>711</v>
       </c>
       <c r="N551" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="552" spans="3:14">
@@ -10288,7 +10327,7 @@
         <v>712</v>
       </c>
       <c r="N552" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="553" spans="3:14">
@@ -10296,7 +10335,7 @@
         <v>713</v>
       </c>
       <c r="N553" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="554" spans="3:14">
@@ -10304,7 +10343,7 @@
         <v>714</v>
       </c>
       <c r="N554" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="555" spans="3:14">
@@ -10312,7 +10351,7 @@
         <v>715</v>
       </c>
       <c r="N555" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="556" spans="3:14">
@@ -10320,7 +10359,7 @@
         <v>716</v>
       </c>
       <c r="N556" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="557" spans="3:14">
@@ -10328,7 +10367,7 @@
         <v>717</v>
       </c>
       <c r="N557" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="558" spans="3:14">
@@ -10336,7 +10375,7 @@
         <v>718</v>
       </c>
       <c r="N558" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="559" spans="3:14">
@@ -10344,7 +10383,7 @@
         <v>719</v>
       </c>
       <c r="N559" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="560" spans="3:14">
@@ -10352,7 +10391,7 @@
         <v>720</v>
       </c>
       <c r="N560" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="561" spans="3:14">
@@ -10360,7 +10399,7 @@
         <v>721</v>
       </c>
       <c r="N561" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="562" spans="3:14">
@@ -10368,7 +10407,7 @@
         <v>722</v>
       </c>
       <c r="N562" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="563" spans="3:14">
@@ -10376,7 +10415,7 @@
         <v>723</v>
       </c>
       <c r="N563" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="564" spans="3:14">
@@ -10384,7 +10423,7 @@
         <v>724</v>
       </c>
       <c r="N564" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="565" spans="3:14">
@@ -10392,7 +10431,7 @@
         <v>725</v>
       </c>
       <c r="N565" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="566" spans="3:14">
@@ -10400,7 +10439,7 @@
         <v>726</v>
       </c>
       <c r="N566" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="567" spans="3:14">
@@ -10408,7 +10447,7 @@
         <v>727</v>
       </c>
       <c r="N567" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="568" spans="3:14">
@@ -10416,7 +10455,7 @@
         <v>728</v>
       </c>
       <c r="N568" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="569" spans="3:14">
@@ -10424,7 +10463,7 @@
         <v>729</v>
       </c>
       <c r="N569" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="570" spans="3:14">
@@ -11905,10 +11944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7426F979-31DB-4C0A-8231-FCAD82C9B15E}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:BO44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11916,7 +11955,1933 @@
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="25" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:67">
+      <c r="A1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="O3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="O4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1639</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="O6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67">
+      <c r="A7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1649</v>
+      </c>
+      <c r="O7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7">
+        <v>120</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1607</v>
+      </c>
+      <c r="R7">
+        <v>1.21</v>
+      </c>
+      <c r="S7">
+        <v>0.35</v>
+      </c>
+      <c r="T7">
+        <v>1.01</v>
+      </c>
+      <c r="U7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V7">
+        <v>0.13</v>
+      </c>
+      <c r="W7">
+        <v>0.11</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>121.21</v>
+      </c>
+      <c r="AA7">
+        <v>120</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG7">
+        <v>120</v>
+      </c>
+      <c r="AH7">
+        <v>121.0752</v>
+      </c>
+      <c r="AI7">
+        <v>120</v>
+      </c>
+      <c r="AJ7">
+        <v>1.08</v>
+      </c>
+      <c r="AK7">
+        <v>0.35</v>
+      </c>
+      <c r="AL7">
+        <v>0.9</v>
+      </c>
+      <c r="AM7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AN7">
+        <v>2</v>
+      </c>
+      <c r="AO7">
+        <v>0.13</v>
+      </c>
+      <c r="AP7">
+        <v>0.11</v>
+      </c>
+      <c r="AQ7">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU7">
+        <v>120</v>
+      </c>
+      <c r="AV7">
+        <v>121.3229</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX7">
+        <v>600</v>
+      </c>
+      <c r="AY7">
+        <v>600.54629999999997</v>
+      </c>
+      <c r="AZ7">
+        <v>600</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB7">
+        <v>1200</v>
+      </c>
+      <c r="BC7">
+        <v>1199.4880000000001</v>
+      </c>
+      <c r="BD7">
+        <v>1200</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF7">
+        <v>120</v>
+      </c>
+      <c r="BG7">
+        <v>121.1925</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BI7">
+        <v>600</v>
+      </c>
+      <c r="BJ7">
+        <v>600.17510000000004</v>
+      </c>
+      <c r="BK7">
+        <v>600</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM7">
+        <v>1200</v>
+      </c>
+      <c r="BN7">
+        <v>1199.4680000000001</v>
+      </c>
+      <c r="BO7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67">
+      <c r="A8" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1643</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>IF(E8&gt;0,"[@"&amp;E$1&amp;"="""&amp;E8&amp;"""]","")</f>
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <f>IF(F8&gt;0,"[@"&amp;F$1&amp;"="""&amp;F8&amp;"""]","")</f>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f>IF(G8&gt;0,"[@"&amp;G$1&amp;"="""&amp;G8&amp;"""]","")</f>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f>IF(H8&gt;0,"[@"&amp;H$1&amp;"="""&amp;H8&amp;"""]","")</f>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f>IF(I8&gt;0,"[@"&amp;I$1&amp;"="""&amp;I8&amp;"""]","")</f>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f>IF(J8&gt;0,"[@"&amp;J$1&amp;"="""&amp;J8&amp;"""]","")</f>
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <f>IF(K8&gt;0,"[@"&amp;K$1&amp;"="""&amp;K8&amp;"""]","")</f>
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <f>IF(L8&gt;0,"[@"&amp;L$1&amp;"="""&amp;L8&amp;"""]","")</f>
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <f>IF(M8&gt;0,"[@"&amp;M$1&amp;"="""&amp;M8&amp;"""]","")</f>
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <f>IF(N8&gt;0,"[@"&amp;N$1&amp;"="""&amp;N8&amp;"""]","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:67">
+      <c r="A9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67">
+      <c r="A10" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="16" t="str">
+        <f>"*//*"&amp;IF(E11&gt;0,"[@"&amp;E$1&amp;"="""&amp;E11&amp;"""]","")&amp;IF(F11&gt;0,"[@"&amp;F$1&amp;"="""&amp;F11&amp;"""]","")&amp;IF(G11&gt;0,"[@"&amp;G$1&amp;"="""&amp;G11&amp;"""]","")&amp;
+"/*"&amp;IF(H11&gt;0,"[@"&amp;H$1&amp;"="""&amp;H11&amp;"""]","")&amp;IF(J11&gt;0,"[@"&amp;J$1&amp;"="""&amp;J11&amp;"""]","")&amp;IF(K11&gt;0,"[@"&amp;K$1&amp;"="""&amp;K11&amp;"""]","")&amp;IF(L11&gt;0,"[@"&amp;L$1&amp;"="""&amp;L11&amp;"""]","")&amp;IF(M11&gt;0,"[@"&amp;M$1&amp;"="""&amp;M11&amp;"""]","")&amp;
+"/dcc:"&amp;I11&amp;"/*"&amp;IF(N11&gt;0,"[@"&amp;N$1&amp;"="""&amp;N11&amp;"""]","")&amp;"/text()"</f>
+        <v>*//*[@measuringSystemRef="ms1"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"]/*[@scope="bias"][@dataCategoryRef="-"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:*/*[@idx="1"]/text()</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>627</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N11" s="17">
+        <f>$O$8</f>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1.21</v>
+      </c>
+      <c r="P11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="16" t="str">
+        <f t="shared" ref="D12:D28" si="0">"*//*"&amp;IF(E12&gt;0,"[@"&amp;E$1&amp;"="""&amp;E12&amp;"""]","")&amp;IF(F12&gt;0,"[@"&amp;F$1&amp;"="""&amp;F12&amp;"""]","")&amp;IF(G12&gt;0,"[@"&amp;G$1&amp;"="""&amp;G12&amp;"""]","")&amp;
+"/*"&amp;IF(H12&gt;0,"[@"&amp;H$1&amp;"="""&amp;H12&amp;"""]","")&amp;IF(J12&gt;0,"[@"&amp;J$1&amp;"="""&amp;J12&amp;"""]","")&amp;IF(K12&gt;0,"[@"&amp;K$1&amp;"="""&amp;K12&amp;"""]","")&amp;IF(L12&gt;0,"[@"&amp;L$1&amp;"="""&amp;L12&amp;"""]","")&amp;IF(M12&gt;0,"[@"&amp;M$1&amp;"="""&amp;M12&amp;"""]","")&amp;
+"/dcc:"&amp;I12&amp;"/*"&amp;IF(N12&gt;0,"[@"&amp;N$1&amp;"="""&amp;N12&amp;"""]","")&amp;"/text()"</f>
+        <v>*//*[@measuringSystemRef="ms1"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"]/*[@scope="indication"][@dataCategoryRef="-"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="1"]/text()</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>627</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N12" s="17">
+        <f t="shared" ref="N12:N15" si="1">$O$8</f>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms1"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"]/*[@scope="bias"][@dataCategoryRef="-"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="1"]/text()</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>627</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N13" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1.21</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" ref="Q12:Q28" si="2">IF(E13&gt;0,"[@"&amp;E$1&amp;"="""&amp;E13&amp;"""]","")</f>
+        <v>[@measuringSystemRef="ms1"]</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" ref="R12:R28" si="3">IF(F13&gt;0,"[@"&amp;F$1&amp;"="""&amp;F13&amp;"""]","")</f>
+        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" ref="S12:S28" si="4">IF(G13&gt;0,"[@"&amp;G$1&amp;"="""&amp;G13&amp;"""]","")</f>
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" ref="T12:T28" si="5">IF(H13&gt;0,"[@"&amp;H$1&amp;"="""&amp;H13&amp;"""]","")</f>
+        <v>[@scope="bias"]</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" ref="U12:U28" si="6">IF(I13&gt;0,"[@"&amp;I$1&amp;"="""&amp;I13&amp;"""]","")</f>
+        <v>[@dataCategory="value"]</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" ref="V12:V28" si="7">IF(J13&gt;0,"[@"&amp;J$1&amp;"="""&amp;J13&amp;"""]","")</f>
+        <v>[@dataCategoryRef="-"]</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" ref="W12:W28" si="8">IF(K13&gt;0,"[@"&amp;K$1&amp;"="""&amp;K13&amp;"""]","")</f>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" ref="X12:X28" si="9">IF(L13&gt;0,"[@"&amp;L$1&amp;"="""&amp;L13&amp;"""]","")</f>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" ref="Y12:Y28" si="10">IF(M13&gt;0,"[@"&amp;M$1&amp;"="""&amp;M13&amp;"""]","")</f>
+        <v/>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" ref="Z12:Z28" si="11">IF(N13&gt;0,"[@"&amp;N$1&amp;"="""&amp;N13&amp;"""]","")</f>
+        <v>[@idx="1"]</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:expandedUncertainty/*[@idx="1"]/text()</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0.35</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="5"/>
+        <v>[@scope="bias"]</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="expandedUncertainty"]</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="7"/>
+        <v>[@dataCategoryRef="value"]</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="8"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="9"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="1"]</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="reference"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]/text()</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N15" s="17">
+        <f>$O$9</f>
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="5"/>
+        <v>[@scope="reference"]</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="value"]</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="8"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="9"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="indication"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]/text()</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N16" s="17">
+        <f t="shared" ref="N16:N24" si="12">$O$9</f>
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>600</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="5"/>
+        <v>[@scope="indication"]</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="value"]</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="8"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="9"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]/text()</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N17" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>0.3</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="5"/>
+        <v>[@scope="bias"]</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="value"]</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="8"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="9"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:expandedUncertainty/*[@idx="2"]/text()</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N18" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>1.5</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="5"/>
+        <v>[@scope="bias"]</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="expandedUncertainty"]</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="7"/>
+        <v>[@dataCategoryRef="value"]</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="8"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="9"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="%"]/dcc:expandedUncertainty/*[@idx="2"]/text()</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1624</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>0.25</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="5"/>
+        <v>[@scope="bias"]</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="expandedUncertainty"]</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="7"/>
+        <v>[@dataCategoryRef="value"]</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="8"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="9"/>
+        <v>[@unit="%"]</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms2"][@tableId="calRes2"]/*[@scope="reference"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]/text()</v>
+      </c>
+      <c r="E20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N20" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>600.04169999999999</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms2"]</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes2"]</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="5"/>
+        <v>[@scope="reference"]</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="value"]</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="8"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="9"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms2"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"][@tableId="calRes2"]/*[@scope="indication"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]/text()</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" t="s">
+        <v>627</v>
+      </c>
+      <c r="G21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>600</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms2"]</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="3"/>
+        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes2"]</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="5"/>
+        <v>[@scope="indication"]</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="value"]</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="8"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="9"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms2"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"][@tableId="calRes2"]/*[@scope="bias"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]/text()</v>
+      </c>
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" t="s">
+        <v>627</v>
+      </c>
+      <c r="G22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>0.04</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms2"]</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="3"/>
+        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes2"]</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="5"/>
+        <v>[@scope="bias"]</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="value"]</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="8"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="9"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms2"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"][@tableId="calRes2"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:expandedUncertainty/*[@idx="2"]/text()</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
+        <v>627</v>
+      </c>
+      <c r="G23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N23" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>1.5</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms2"]</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="3"/>
+        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes2"]</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="5"/>
+        <v>[@scope="bias"]</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="expandedUncertainty"]</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="7"/>
+        <v>[@dataCategoryRef="value"]</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="8"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="9"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms2"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"][@tableId="calRes2"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="%"]/dcc:expandedUncertainty/*[@idx="2"]/text()</v>
+      </c>
+      <c r="E24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" t="s">
+        <v>627</v>
+      </c>
+      <c r="G24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1624</v>
+      </c>
+      <c r="N24" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>0.25</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms2"]</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="3"/>
+        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes2"]</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="5"/>
+        <v>[@scope="bias"]</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="expandedUncertainty"]</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="7"/>
+        <v>[@dataCategoryRef="value"]</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="8"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="9"/>
+        <v>[@unit="%"]</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="60">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="reference"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="1"]/text()</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N25" s="17">
+        <f t="shared" ref="N25:N26" si="13">$O$8</f>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>121.21</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="5"/>
+        <v>[@scope="reference"]</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="value"]</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="8"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="9"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="1"]</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*/dcc:rowTag/*[@idx="1"]/text()</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I26" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="17">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="rowTag"]</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="1"]</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@tableId="calRes0"]/*/dcc:rowTag/*[@idx="2"]/text()</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I27" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="17">
+        <f t="shared" ref="N27:N28" si="14">$O$9</f>
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="rowTag"]</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>*//*[@tableId="calRes0"]/*/dcc:rowTag/*[@idx="3"]/text()</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I28" t="s">
+        <v>94</v>
+      </c>
+      <c r="N28" s="17">
+        <f>$O$10</f>
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1631</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="4"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="6"/>
+        <v>[@dataCategory="rowTag"]</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="11"/>
+        <v>[@idx="3"]</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="409.5">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="B31" t="b">
+        <f>B25=D25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1033:J1037 K1032" xr:uid="{93874A6F-CB79-438B-9352-A0C151DB9D10}">
+      <formula1>measurandType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1033:G1037 H2:H1032" xr:uid="{701229B1-CC74-457F-881B-8E3C40337601}">
+      <formula1>scopeType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1033:H1037" xr:uid="{731E94A1-C233-4545-B593-298F19FD4BD0}">
+      <formula1>metaDataCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1033:F1037 G2:G1037" xr:uid="{4B8103AB-81B6-443C-B803-033A9C2DB9C4}">
+      <formula1>tableId</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1037" xr:uid="{9F31F370-1770-41BF-A463-1D84DE1C7AFB}">
+      <formula1>queryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1037 J2:J1032" xr:uid="{391BE516-E93C-4476-8835-E07B96098A93}">
+      <formula1>dataCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1037" xr:uid="{C2F564A9-7FA3-4F7E-9968-A49985F709AE}">
+      <formula1>measuringSystemId</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1032" xr:uid="{0AD674FE-7AC0-42A2-8665-A704E8B50C50}">
+      <formula1>serviceCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1031" xr:uid="{3219AD64-8E58-4724-83B0-F27C5D239409}">
+      <formula1>quantityType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1028" xr:uid="{18863168-D816-4A16-8D2C-BCB7C5A79BD1}">
+      <formula1>quantityUnitDefRefs</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1028" xr:uid="{A0789B79-5616-4CB4-90D9-BF3527EABEB3}">
+      <formula1>units</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC965331-5CFE-437B-9067-D9746839A490}">
+  <dimension ref="A1:AA44"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -11931,7 +13896,7 @@
     <col min="17" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="5" t="s">
         <v>58</v>
       </c>
@@ -11963,22 +13928,22 @@
         <v>1031</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11989,13 +13954,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>1636</v>
       </c>
       <c r="O2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -12006,13 +13971,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>1637</v>
       </c>
       <c r="O3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -12023,13 +13988,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>1638</v>
       </c>
       <c r="O4">
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -12040,14 +14005,14 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>1639</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -12058,314 +14023,120 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>1640</v>
       </c>
       <c r="O6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B7" s="14"/>
+        <v>1648</v>
+      </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1637</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="Q7" t="str">
-        <f>IF(E7&gt;0,"[@"&amp;E$1&amp;"="""&amp;E7&amp;"""]","")</f>
-        <v/>
-      </c>
-      <c r="R7" t="str">
-        <f>IF(F7&gt;0,"[@"&amp;F$1&amp;"="""&amp;F7&amp;"""]","")</f>
-        <v/>
-      </c>
-      <c r="S7" t="str">
-        <f>IF(G7&gt;0,"[@"&amp;G$1&amp;"="""&amp;G7&amp;"""]","")</f>
-        <v/>
-      </c>
-      <c r="T7" t="str">
-        <f>IF(H7&gt;0,"[@"&amp;H$1&amp;"="""&amp;H7&amp;"""]","")</f>
-        <v/>
-      </c>
-      <c r="U7" t="str">
-        <f>IF(I7&gt;0,"[@"&amp;I$1&amp;"="""&amp;I7&amp;"""]","")</f>
-        <v/>
-      </c>
-      <c r="V7" t="str">
-        <f>IF(J7&gt;0,"[@"&amp;J$1&amp;"="""&amp;J7&amp;"""]","")</f>
-        <v/>
-      </c>
-      <c r="W7" t="str">
-        <f>IF(K7&gt;0,"[@"&amp;K$1&amp;"="""&amp;K7&amp;"""]","")</f>
-        <v/>
-      </c>
-      <c r="X7" t="str">
-        <f>IF(L7&gt;0,"[@"&amp;L$1&amp;"="""&amp;L7&amp;"""]","")</f>
-        <v/>
-      </c>
-      <c r="Y7" t="str">
-        <f>IF(M7&gt;0,"[@"&amp;M$1&amp;"="""&amp;M7&amp;"""]","")</f>
-        <v/>
-      </c>
-      <c r="Z7" t="str">
-        <f>IF(N7&gt;0,"[@"&amp;N$1&amp;"="""&amp;N7&amp;"""]","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>1649</v>
+      </c>
+      <c r="O7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
+        <v>1627</v>
+      </c>
+      <c r="B8" s="14"/>
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="str">
-        <f>"*//*"&amp;_xlfn.CONCAT(Q8:S8)&amp;"/*"&amp;_xlfn.CONCAT(T8,V8:Y8)&amp;"/dcc:"&amp;I8&amp;"/*"&amp;Z8</f>
-        <v>*//*[@measuringSystemRef="ms1"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"]/*[@scope="reference"][@dataCategoryRef="-"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="1"]</v>
-      </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s">
-        <v>627</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N8" s="15">
+      <c r="D8" s="7" t="s">
+        <v>1643</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="O8">
-        <v>121.21</v>
-      </c>
       <c r="Q8" t="str">
-        <f t="shared" ref="Q8" si="0">IF(E8&gt;0,"[@"&amp;E$1&amp;"="""&amp;E8&amp;"""]","")</f>
-        <v>[@measuringSystemRef="ms1"]</v>
+        <f>IF(E8&gt;0,"[@"&amp;E$1&amp;"="""&amp;E8&amp;"""]","")</f>
+        <v/>
       </c>
       <c r="R8" t="str">
-        <f t="shared" ref="R8" si="1">IF(F8&gt;0,"[@"&amp;F$1&amp;"="""&amp;F8&amp;"""]","")</f>
-        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+        <f>IF(F8&gt;0,"[@"&amp;F$1&amp;"="""&amp;F8&amp;"""]","")</f>
+        <v/>
       </c>
       <c r="S8" t="str">
-        <f t="shared" ref="S8" si="2">IF(G8&gt;0,"[@"&amp;G$1&amp;"="""&amp;G8&amp;"""]","")</f>
+        <f>IF(G8&gt;0,"[@"&amp;G$1&amp;"="""&amp;G8&amp;"""]","")</f>
         <v/>
       </c>
       <c r="T8" t="str">
-        <f t="shared" ref="T8" si="3">IF(H8&gt;0,"[@"&amp;H$1&amp;"="""&amp;H8&amp;"""]","")</f>
-        <v>[@scope="reference"]</v>
+        <f>IF(H8&gt;0,"[@"&amp;H$1&amp;"="""&amp;H8&amp;"""]","")</f>
+        <v/>
       </c>
       <c r="U8" t="str">
-        <f t="shared" ref="U8" si="4">IF(I8&gt;0,"[@"&amp;I$1&amp;"="""&amp;I8&amp;"""]","")</f>
-        <v>[@dataCategory="value"]</v>
+        <f>IF(I8&gt;0,"[@"&amp;I$1&amp;"="""&amp;I8&amp;"""]","")</f>
+        <v/>
       </c>
       <c r="V8" t="str">
-        <f t="shared" ref="V8" si="5">IF(J8&gt;0,"[@"&amp;J$1&amp;"="""&amp;J8&amp;"""]","")</f>
-        <v>[@dataCategoryRef="-"]</v>
+        <f>IF(J8&gt;0,"[@"&amp;J$1&amp;"="""&amp;J8&amp;"""]","")</f>
+        <v/>
       </c>
       <c r="W8" t="str">
-        <f t="shared" ref="W8" si="6">IF(K8&gt;0,"[@"&amp;K$1&amp;"="""&amp;K8&amp;"""]","")</f>
-        <v>[@quantity="3-4|volume|m3"]</v>
+        <f>IF(K8&gt;0,"[@"&amp;K$1&amp;"="""&amp;K8&amp;"""]","")</f>
+        <v/>
       </c>
       <c r="X8" t="str">
-        <f t="shared" ref="X8" si="7">IF(L8&gt;0,"[@"&amp;L$1&amp;"="""&amp;L8&amp;"""]","")</f>
-        <v>[@unit="µL"]</v>
+        <f>IF(L8&gt;0,"[@"&amp;L$1&amp;"="""&amp;L8&amp;"""]","")</f>
+        <v/>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" ref="Y8" si="8">IF(M8&gt;0,"[@"&amp;M$1&amp;"="""&amp;M8&amp;"""]","")</f>
+        <f>IF(M8&gt;0,"[@"&amp;M$1&amp;"="""&amp;M8&amp;"""]","")</f>
         <v/>
       </c>
       <c r="Z8" t="str">
-        <f t="shared" ref="Z8" si="9">IF(N8&gt;0,"[@"&amp;N$1&amp;"="""&amp;N8&amp;"""]","")</f>
-        <v>[@idx="1"]</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <f>IF(N8&gt;0,"[@"&amp;N$1&amp;"="""&amp;N8&amp;"""]","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
+        <v>1646</v>
+      </c>
+      <c r="B9" s="14"/>
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="str">
-        <f t="shared" ref="D9:D25" si="10">"*//*"&amp;_xlfn.CONCAT(Q9:S9)&amp;"/*"&amp;_xlfn.CONCAT(T9,V9:Y9)&amp;"/dcc:"&amp;I9&amp;"/*"&amp;Z9</f>
-        <v>*//*[@measuringSystemRef="ms1"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"]/*[@scope="indication"][@dataCategoryRef="-"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="1"]</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>627</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N9" s="15">
-        <v>1</v>
-      </c>
+      <c r="D9" s="7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="N9" s="15"/>
       <c r="O9">
-        <v>120</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" ref="Q9:Q25" si="11">IF(E9&gt;0,"[@"&amp;E$1&amp;"="""&amp;E9&amp;"""]","")</f>
-        <v>[@measuringSystemRef="ms1"]</v>
-      </c>
-      <c r="R9" t="str">
-        <f t="shared" ref="R9:R25" si="12">IF(F9&gt;0,"[@"&amp;F$1&amp;"="""&amp;F9&amp;"""]","")</f>
-        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" ref="S9:S25" si="13">IF(G9&gt;0,"[@"&amp;G$1&amp;"="""&amp;G9&amp;"""]","")</f>
-        <v/>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" ref="T9:T25" si="14">IF(H9&gt;0,"[@"&amp;H$1&amp;"="""&amp;H9&amp;"""]","")</f>
-        <v>[@scope="indication"]</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" ref="U9:U25" si="15">IF(I9&gt;0,"[@"&amp;I$1&amp;"="""&amp;I9&amp;"""]","")</f>
-        <v>[@dataCategory="value"]</v>
-      </c>
-      <c r="V9" t="str">
-        <f t="shared" ref="V9:V25" si="16">IF(J9&gt;0,"[@"&amp;J$1&amp;"="""&amp;J9&amp;"""]","")</f>
-        <v>[@dataCategoryRef="-"]</v>
-      </c>
-      <c r="W9" t="str">
-        <f t="shared" ref="W9:W25" si="17">IF(K9&gt;0,"[@"&amp;K$1&amp;"="""&amp;K9&amp;"""]","")</f>
-        <v>[@quantity="3-4|volume|m3"]</v>
-      </c>
-      <c r="X9" t="str">
-        <f t="shared" ref="X9:X25" si="18">IF(L9&gt;0,"[@"&amp;L$1&amp;"="""&amp;L9&amp;"""]","")</f>
-        <v>[@unit="µL"]</v>
-      </c>
-      <c r="Y9" t="str">
-        <f t="shared" ref="Y9:Y25" si="19">IF(M9&gt;0,"[@"&amp;M$1&amp;"="""&amp;M9&amp;"""]","")</f>
-        <v/>
-      </c>
-      <c r="Z9" t="str">
-        <f t="shared" ref="Z9:Z25" si="20">IF(N9&gt;0,"[@"&amp;N$1&amp;"="""&amp;N9&amp;"""]","")</f>
-        <v>[@idx="1"]</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
+        <v>1647</v>
+      </c>
+      <c r="B10" s="14"/>
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms1"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"]/*[@scope="bias"][@dataCategoryRef="-"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="1"]</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" t="s">
-        <v>627</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N10" s="15">
+      <c r="D10" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
         <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1.21</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="11"/>
-        <v>[@measuringSystemRef="ms1"]</v>
-      </c>
-      <c r="R10" t="str">
-        <f t="shared" si="12"/>
-        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="14"/>
-        <v>[@scope="bias"]</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="value"]</v>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="16"/>
-        <v>[@dataCategoryRef="-"]</v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="17"/>
-        <v>[@quantity="3-4|volume|m3"]</v>
-      </c>
-      <c r="X10" t="str">
-        <f t="shared" si="18"/>
-        <v>[@unit="µL"]</v>
-      </c>
-      <c r="Y10" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Z10" t="str">
-        <f t="shared" si="20"/>
-        <v>[@idx="1"]</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" t="s">
-        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
@@ -12373,81 +14144,90 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:expandedUncertainty/*[@idx="1"]</v>
+      <c r="D11" s="16" t="str">
+        <f>"*//*"&amp;IF(E11&gt;0,"[@"&amp;E$1&amp;"="""&amp;E11&amp;"""]","")&amp;IF(F11&gt;0,"[@"&amp;F$1&amp;"="""&amp;F11&amp;"""]","")&amp;IF(G11&gt;0,"[@"&amp;G$1&amp;"="""&amp;G11&amp;"""]","")&amp;
+"/*"&amp;IF(H11&gt;0,"[@"&amp;H$1&amp;"="""&amp;H11&amp;"""]","")&amp;IF(J11&gt;0,"[@"&amp;J$1&amp;"="""&amp;J11&amp;"""]","")&amp;IF(K11&gt;0,"[@"&amp;K$1&amp;"="""&amp;K11&amp;"""]","")&amp;IF(L11&gt;0,"[@"&amp;L$1&amp;"="""&amp;L11&amp;"""]","")&amp;IF(M11&gt;0,"[@"&amp;M$1&amp;"="""&amp;M11&amp;"""]","")&amp;
+"/dcc:"&amp;I11&amp;"/*"&amp;IF(N11&gt;0,"[@"&amp;N$1&amp;"="""&amp;N11&amp;"""]","")&amp;"/text()"</f>
+        <v>*//*[@measuringSystemRef="ms1"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"]/*[@scope="bias"][@dataCategoryRef="-"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:*/*[@idx="1"]/text()</v>
       </c>
       <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="G11" t="s">
-        <v>1029</v>
+      <c r="F11" t="s">
+        <v>627</v>
       </c>
       <c r="H11" t="s">
         <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>1032</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L11" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N11" s="15">
+        <v>1035</v>
+      </c>
+      <c r="N11" s="17">
+        <f>$O$8</f>
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0.35</v>
+        <v>1.21</v>
+      </c>
+      <c r="P11">
+        <v>0.13</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(E11&gt;0,"[@"&amp;E$1&amp;"="""&amp;E11&amp;"""]","")</f>
         <v>[@measuringSystemRef="ms1"]</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="R11:Z26" si="0">IF(F11&gt;0,"[@"&amp;F$1&amp;"="""&amp;F11&amp;"""]","")</f>
+        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S11" t="str">
-        <f t="shared" si="13"/>
-        <v>[@tableId="calRes0"]</v>
-      </c>
       <c r="T11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>[@scope="bias"]</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="expandedUncertainty"]</v>
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="*"]</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="16"/>
-        <v>[@dataCategoryRef="value"]</v>
+        <f t="shared" si="0"/>
+        <v>[@dataCategoryRef="-"]</v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="0"/>
         <v>[@quantity="3-4|volume|m3"]</v>
       </c>
       <c r="X11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>[@unit="µL"]</v>
       </c>
       <c r="Y11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Z11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>[@idx="1"]</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -12455,78 +14235,85 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="reference"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]</v>
+      <c r="D12" s="16" t="str">
+        <f>"*//*"&amp;_xlfn.CONCAT(Q12:S12)&amp;"/*"&amp;_xlfn.CONCAT(T12,V12:Y12)&amp;"/dcc:"&amp;I12&amp;"/*"&amp;Z12&amp;AA12</f>
+        <v>*//*[@measuringSystemRef="ms1"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"]/*[@scope="indication"][@dataCategoryRef="-"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="1"]/text()</v>
       </c>
       <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="G12" t="s">
-        <v>1029</v>
+      <c r="F12" t="s">
+        <v>627</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
         <v>84</v>
       </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
       <c r="K12" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L12" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N12" s="15">
-        <v>2</v>
+        <v>1035</v>
+      </c>
+      <c r="N12" s="17">
+        <f t="shared" ref="N12:N14" si="1">$O$8</f>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>600.29999999999995</v>
+        <v>120</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="Q12:Z28" si="2">IF(E12&gt;0,"[@"&amp;E$1&amp;"="""&amp;E12&amp;"""]","")</f>
         <v>[@measuringSystemRef="ms1"]</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
+        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S12" t="str">
-        <f t="shared" si="13"/>
-        <v>[@tableId="calRes0"]</v>
-      </c>
       <c r="T12" t="str">
-        <f t="shared" si="14"/>
-        <v>[@scope="reference"]</v>
+        <f t="shared" si="0"/>
+        <v>[@scope="indication"]</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>[@dataCategory="value"]</v>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
+        <v>[@dataCategoryRef="-"]</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="0"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="0"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W12" t="str">
-        <f t="shared" si="17"/>
-        <v>[@quantity="3-4|volume|m3"]</v>
-      </c>
-      <c r="X12" t="str">
-        <f t="shared" si="18"/>
-        <v>[@unit="µL"]</v>
-      </c>
-      <c r="Y12" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="Z12" t="str">
-        <f t="shared" si="20"/>
-        <v>[@idx="2"]</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <f t="shared" si="0"/>
+        <v>[@idx="1"]</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -12534,78 +14321,85 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="indication"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]</v>
+      <c r="D13" s="16" t="str">
+        <f t="shared" ref="D13:D29" si="3">"*//*"&amp;_xlfn.CONCAT(Q13:S13)&amp;"/*"&amp;_xlfn.CONCAT(T13,V13:Y13)&amp;"/dcc:"&amp;I13&amp;"/*"&amp;Z13&amp;AA13</f>
+        <v>*//*[@measuringSystemRef="ms1"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"]/*[@scope="bias"][@dataCategoryRef="-"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="1"]/text()</v>
       </c>
       <c r="E13" t="s">
         <v>73</v>
       </c>
-      <c r="G13" t="s">
-        <v>1029</v>
+      <c r="F13" t="s">
+        <v>627</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
         <v>84</v>
       </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
       <c r="K13" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L13" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N13" s="15">
-        <v>2</v>
+        <v>1035</v>
+      </c>
+      <c r="N13" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>600</v>
+        <v>1.21</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>[@measuringSystemRef="ms1"]</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
+        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S13" t="str">
-        <f t="shared" si="13"/>
-        <v>[@tableId="calRes0"]</v>
-      </c>
       <c r="T13" t="str">
-        <f t="shared" si="14"/>
-        <v>[@scope="indication"]</v>
+        <f t="shared" si="0"/>
+        <v>[@scope="bias"]</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>[@dataCategory="value"]</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
+        <v>[@dataCategoryRef="-"]</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="0"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="0"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W13" t="str">
-        <f t="shared" si="17"/>
-        <v>[@quantity="3-4|volume|m3"]</v>
-      </c>
-      <c r="X13" t="str">
-        <f t="shared" si="18"/>
-        <v>[@unit="µL"]</v>
-      </c>
-      <c r="Y13" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="Z13" t="str">
-        <f t="shared" si="20"/>
-        <v>[@idx="2"]</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <f t="shared" si="0"/>
+        <v>[@idx="1"]</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
@@ -12613,9 +14407,9 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]</v>
+      <c r="D14" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:expandedUncertainty/*[@idx="1"]/text()</v>
       </c>
       <c r="E14" t="s">
         <v>73</v>
@@ -12627,64 +14421,71 @@
         <v>65</v>
       </c>
       <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
         <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L14" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N14" s="15">
-        <v>2</v>
+        <v>1035</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>[@measuringSystemRef="ms1"]</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>[@tableId="calRes0"]</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>[@scope="bias"]</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="value"]</v>
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="expandedUncertainty"]</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
+        <v>[@dataCategoryRef="value"]</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="0"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="0"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W14" t="str">
-        <f t="shared" si="17"/>
-        <v>[@quantity="3-4|volume|m3"]</v>
-      </c>
-      <c r="X14" t="str">
-        <f t="shared" si="18"/>
-        <v>[@unit="µL"]</v>
-      </c>
-      <c r="Y14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="Z14" t="str">
-        <f t="shared" si="20"/>
-        <v>[@idx="2"]</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <f t="shared" si="0"/>
+        <v>[@idx="1"]</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -12692,9 +14493,9 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:expandedUncertainty/*[@idx="2"]</v>
+      <c r="D15" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="reference"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]/text()</v>
       </c>
       <c r="E15" t="s">
         <v>73</v>
@@ -12703,70 +14504,70 @@
         <v>1029</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" t="s">
         <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L15" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="N15" s="15">
         <v>2</v>
       </c>
       <c r="O15">
-        <v>1.5</v>
+        <v>600.29999999999995</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>[@measuringSystemRef="ms1"]</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>[@tableId="calRes0"]</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="14"/>
-        <v>[@scope="bias"]</v>
+        <f t="shared" si="0"/>
+        <v>[@scope="reference"]</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="expandedUncertainty"]</v>
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="value"]</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="16"/>
-        <v>[@dataCategoryRef="value"]</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="0"/>
         <v>[@quantity="3-4|volume|m3"]</v>
       </c>
       <c r="X15" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>[@unit="µL"]</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Z15" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>[@idx="2"]</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -12774,9 +14575,9 @@
       <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="%"]/dcc:expandedUncertainty/*[@idx="2"]</v>
+      <c r="D16" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="indication"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]/text()</v>
       </c>
       <c r="E16" t="s">
         <v>73</v>
@@ -12785,313 +14586,322 @@
         <v>1029</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" t="s">
         <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L16" t="s">
-        <v>1625</v>
+        <v>1035</v>
       </c>
       <c r="N16" s="15">
         <v>2</v>
       </c>
       <c r="O16">
-        <v>0.25</v>
+        <v>600</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>[@measuringSystemRef="ms1"]</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>[@tableId="calRes0"]</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="14"/>
-        <v>[@scope="bias"]</v>
+        <f t="shared" si="0"/>
+        <v>[@scope="indication"]</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="expandedUncertainty"]</v>
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="value"]</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="16"/>
-        <v>[@dataCategoryRef="value"]</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="0"/>
         <v>[@quantity="3-4|volume|m3"]</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" si="18"/>
-        <v>[@unit="%"]</v>
+        <f t="shared" si="0"/>
+        <v>[@unit="µL"]</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Z16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>[@idx="2"]</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms2"][@tableId="calRes2"]/*[@scope="reference"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]</v>
+      <c r="D17" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]/text()</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>147</v>
+        <v>1029</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I17" t="s">
         <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L17" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="N17" s="15">
         <v>2</v>
       </c>
       <c r="O17">
-        <v>600.04169999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="11"/>
-        <v>[@measuringSystemRef="ms2"]</v>
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="13"/>
-        <v>[@tableId="calRes2"]</v>
+        <f t="shared" si="0"/>
+        <v>[@tableId="calRes0"]</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="14"/>
-        <v>[@scope="reference"]</v>
+        <f t="shared" si="0"/>
+        <v>[@scope="bias"]</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>[@dataCategory="value"]</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="0"/>
         <v>[@quantity="3-4|volume|m3"]</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>[@unit="µL"]</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Z17" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>[@idx="2"]</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms2"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"][@tableId="calRes2"]/*[@scope="indication"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]</v>
+      <c r="D18" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:expandedUncertainty/*[@idx="2"]/text()</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" t="s">
-        <v>627</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
+        <v>1029</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" t="s">
         <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L18" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="N18" s="15">
         <v>2</v>
       </c>
       <c r="O18">
-        <v>600</v>
+        <v>1.5</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="11"/>
-        <v>[@measuringSystemRef="ms2"]</v>
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="12"/>
-        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="13"/>
-        <v>[@tableId="calRes2"]</v>
+        <f t="shared" si="0"/>
+        <v>[@tableId="calRes0"]</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="14"/>
-        <v>[@scope="indication"]</v>
+        <f t="shared" si="0"/>
+        <v>[@scope="bias"]</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="value"]</v>
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="expandedUncertainty"]</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
+        <v>[@dataCategoryRef="value"]</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="0"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="0"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W18" t="str">
-        <f t="shared" si="17"/>
-        <v>[@quantity="3-4|volume|m3"]</v>
-      </c>
-      <c r="X18" t="str">
-        <f t="shared" si="18"/>
-        <v>[@unit="µL"]</v>
-      </c>
-      <c r="Y18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="Z18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>[@idx="2"]</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms2"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"][@tableId="calRes2"]/*[@scope="bias"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]</v>
+      <c r="D19" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="%"]/dcc:expandedUncertainty/*[@idx="2"]/text()</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" t="s">
-        <v>627</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>1029</v>
       </c>
       <c r="H19" t="s">
         <v>65</v>
       </c>
       <c r="I19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" t="s">
         <v>84</v>
       </c>
       <c r="K19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L19" t="s">
-        <v>1036</v>
+        <v>1624</v>
       </c>
       <c r="N19" s="15">
         <v>2</v>
       </c>
       <c r="O19">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="11"/>
-        <v>[@measuringSystemRef="ms2"]</v>
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="12"/>
-        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="13"/>
-        <v>[@tableId="calRes2"]</v>
+        <f t="shared" si="0"/>
+        <v>[@tableId="calRes0"]</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>[@scope="bias"]</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="value"]</v>
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="expandedUncertainty"]</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
+        <v>[@dataCategoryRef="value"]</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="0"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="0"/>
+        <v>[@unit="%"]</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W19" t="str">
-        <f t="shared" si="17"/>
-        <v>[@quantity="3-4|volume|m3"]</v>
-      </c>
-      <c r="X19" t="str">
-        <f t="shared" si="18"/>
-        <v>[@unit="µL"]</v>
-      </c>
-      <c r="Y19" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="Z19" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>[@idx="2"]</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -13099,84 +14909,81 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms2"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"][@tableId="calRes2"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:expandedUncertainty/*[@idx="2"]</v>
+      <c r="D20" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms2"][@tableId="calRes2"]/*[@scope="reference"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]/text()</v>
       </c>
       <c r="E20" t="s">
         <v>145</v>
       </c>
-      <c r="F20" t="s">
-        <v>627</v>
-      </c>
       <c r="G20" t="s">
         <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" t="s">
         <v>84</v>
       </c>
       <c r="K20" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L20" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="N20" s="15">
         <v>2</v>
       </c>
       <c r="O20">
-        <v>1.5</v>
+        <v>600.04169999999999</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>[@measuringSystemRef="ms2"]</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="12"/>
-        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>[@tableId="calRes2"]</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="14"/>
-        <v>[@scope="bias"]</v>
+        <f t="shared" si="0"/>
+        <v>[@scope="reference"]</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="expandedUncertainty"]</v>
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="value"]</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="16"/>
-        <v>[@dataCategoryRef="value"]</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="0"/>
         <v>[@quantity="3-4|volume|m3"]</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>[@unit="µL"]</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Z20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>[@idx="2"]</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -13184,9 +14991,9 @@
       <c r="C21" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms2"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"][@tableId="calRes2"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="%"]/dcc:expandedUncertainty/*[@idx="2"]</v>
+      <c r="D21" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms2"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"][@tableId="calRes2"]/*[@scope="indication"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]/text()</v>
       </c>
       <c r="E21" t="s">
         <v>145</v>
@@ -13198,431 +15005,704 @@
         <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" t="s">
         <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L21" t="s">
-        <v>1625</v>
+        <v>1035</v>
       </c>
       <c r="N21" s="15">
         <v>2</v>
       </c>
       <c r="O21">
-        <v>0.25</v>
+        <v>600</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>[@measuringSystemRef="ms2"]</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>[@tableId="calRes2"]</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="14"/>
-        <v>[@scope="bias"]</v>
+        <f t="shared" si="0"/>
+        <v>[@scope="indication"]</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="expandedUncertainty"]</v>
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="value"]</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="16"/>
-        <v>[@dataCategoryRef="value"]</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="0"/>
         <v>[@quantity="3-4|volume|m3"]</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="18"/>
-        <v>[@unit="%"]</v>
+        <f t="shared" si="0"/>
+        <v>[@unit="µL"]</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Z21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>[@idx="2"]</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="60">
+      <c r="AA21" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>1037</v>
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="reference"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="1"]</v>
+      <c r="D22" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms2"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"][@tableId="calRes2"]/*[@scope="bias"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="2"]/text()</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>145</v>
+      </c>
+      <c r="F22" t="s">
+        <v>627</v>
       </c>
       <c r="G22" t="s">
-        <v>1029</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I22" t="s">
         <v>84</v>
       </c>
       <c r="K22" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L22" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="N22" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>121.21</v>
+        <v>0.04</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="11"/>
-        <v>[@measuringSystemRef="ms1"]</v>
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms2"]</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
+        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="0"/>
+        <v>[@tableId="calRes2"]</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="0"/>
+        <v>[@scope="bias"]</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="value"]</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S22" t="str">
-        <f t="shared" si="13"/>
-        <v>[@tableId="calRes0"]</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="14"/>
-        <v>[@scope="reference"]</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="value"]</v>
-      </c>
-      <c r="V22" t="str">
-        <f t="shared" si="16"/>
+      <c r="W22" t="str">
+        <f t="shared" si="0"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="0"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W22" t="str">
-        <f t="shared" si="17"/>
-        <v>[@quantity="3-4|volume|m3"]</v>
-      </c>
-      <c r="X22" t="str">
-        <f t="shared" si="18"/>
-        <v>[@unit="µL"]</v>
-      </c>
-      <c r="Y22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="Z22" t="str">
-        <f t="shared" si="20"/>
-        <v>[@idx="1"]</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <f t="shared" si="0"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B23" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*/dcc:rowTag/*[@idx="1"]</v>
+      <c r="D23" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms2"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"][@tableId="calRes2"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:expandedUncertainty/*[@idx="2"]/text()</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
+        <v>627</v>
       </c>
       <c r="G23" t="s">
-        <v>1029</v>
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>1626</v>
-      </c>
-      <c r="O23" t="s">
-        <v>114</v>
+        <v>86</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N23" s="15">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>1.5</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="11"/>
-        <v>[@measuringSystemRef="ms1"]</v>
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms2"]</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
+        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="0"/>
+        <v>[@tableId="calRes2"]</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="0"/>
+        <v>[@scope="bias"]</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="expandedUncertainty"]</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="0"/>
+        <v>[@dataCategoryRef="value"]</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="0"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="0"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S23" t="str">
-        <f t="shared" si="13"/>
-        <v>[@tableId="calRes0"]</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="rowTag"]</v>
-      </c>
-      <c r="V23" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="W23" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="X23" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y23" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="Z23" t="str">
-        <f t="shared" si="20"/>
-        <v>[@idx="1"]</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <f t="shared" si="0"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B24" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@tableId="calRes0"]/*/dcc:rowTag/*[@idx="2"]</v>
+      <c r="D24" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms2"][@serviceCategory="M/FF-9.10.3 Quantity of fluid"][@tableId="calRes2"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="%"]/dcc:expandedUncertainty/*[@idx="2"]/text()</v>
+      </c>
+      <c r="E24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" t="s">
+        <v>627</v>
       </c>
       <c r="G24" t="s">
-        <v>1029</v>
+        <v>147</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>1629</v>
-      </c>
-      <c r="O24" t="s">
-        <v>115</v>
+        <v>86</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1624</v>
+      </c>
+      <c r="N24" s="15">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>0.25</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms2"]</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="0"/>
+        <v>[@serviceCategory="M/FF-9.10.3 Quantity of fluid"]</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="0"/>
+        <v>[@tableId="calRes2"]</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="0"/>
+        <v>[@scope="bias"]</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="expandedUncertainty"]</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="0"/>
+        <v>[@dataCategoryRef="value"]</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="0"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="0"/>
+        <v>[@unit="%"]</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S24" t="str">
-        <f t="shared" si="13"/>
-        <v>[@tableId="calRes0"]</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="rowTag"]</v>
-      </c>
-      <c r="V24" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="W24" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="X24" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y24" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="Z24" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>[@idx="2"]</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="30">
+      <c r="AA24" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="60">
       <c r="A25" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B25" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1036</v>
+      </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>*//*[@tableId="calRes0"]/*/dcc:rowTag/*[@idx="3"]</v>
+      <c r="D25" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*[@scope="reference"][@quantity="3-4|volume|m3"][@unit="µL"]/dcc:value/*[@idx="1"]/text()</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
       </c>
       <c r="G25" t="s">
         <v>1029</v>
       </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
       <c r="I25" t="s">
-        <v>94</v>
-      </c>
-      <c r="N25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N25" s="15">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>121.21</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="0"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="0"/>
+        <v>[@scope="reference"]</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="value"]</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="0"/>
+        <v>[@quantity="3-4|volume|m3"]</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="0"/>
+        <v>[@unit="µL"]</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="0"/>
+        <v>[@idx="1"]</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
         <v>1630</v>
       </c>
-      <c r="O25" t="s">
-        <v>1632</v>
-      </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R25" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S25" t="str">
-        <f t="shared" si="13"/>
-        <v>[@tableId="calRes0"]</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="15"/>
-        <v>[@dataCategory="rowTag"]</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="W25" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="X25" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y25" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Z25" t="str">
-        <f t="shared" si="20"/>
-        <v>[@idx="3"]</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="409.5">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
+      <c r="B26" s="14"/>
       <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@measuringSystemRef="ms1"][@tableId="calRes0"]/*/dcc:rowTag/*[@idx="1"]/text()</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I26" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>1625</v>
+      </c>
+      <c r="O26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="2"/>
+        <v>[@measuringSystemRef="ms1"]</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="0"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="0"/>
+        <v>[@dataCategory="rowTag"]</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="0"/>
+        <v>[@idx="1"]</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@tableId="calRes0"]/*/dcc:rowTag/*[@idx="2"]/text()</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I27" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>1628</v>
+      </c>
+      <c r="O27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="2"/>
+        <v>[@dataCategory="rowTag"]</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="2"/>
+        <v>[@idx="2"]</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>*//*[@tableId="calRes0"]/*/dcc:rowTag/*[@idx="3"]/text()</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I28" t="s">
+        <v>94</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>1629</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1631</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>[@tableId="calRes0"]</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="2"/>
+        <v>[@dataCategory="rowTag"]</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="2"/>
+        <v>[@idx="3"]</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="409.5">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O29" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="O26" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="7" t="s">
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
-      <c r="B28" t="b">
-        <f>B22=D22</f>
+    <row r="31" spans="1:27">
+      <c r="B31" t="b">
+        <f>B25=D25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>12</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="C40" t="s">
+    <row r="43" spans="1:4">
+      <c r="C43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="C41" t="s">
+    <row r="44" spans="1:4">
+      <c r="C44" t="s">
         <v>12</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D44" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1030:J1034 K1029" xr:uid="{93874A6F-CB79-438B-9352-A0C151DB9D10}">
-      <formula1>measurandType</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1028" xr:uid="{740CE28F-5C2B-496D-8791-D8E3507FD2A5}">
+      <formula1>units</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1030:G1034 H23:H1029 H2:H22" xr:uid="{701229B1-CC74-457F-881B-8E3C40337601}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1028" xr:uid="{14627AA7-6044-40D4-907B-7D4A52396FA5}">
+      <formula1>quantityUnitDefRefs</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1031" xr:uid="{2BED897F-0483-4965-B40A-52665107A776}">
+      <formula1>quantityType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1032" xr:uid="{E87A6F21-D783-45C6-A947-B65DCFDF85C8}">
+      <formula1>serviceCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1037" xr:uid="{4984A1B0-C2CE-4C69-AB8D-CF871FAB754E}">
+      <formula1>measuringSystemId</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1037 J2:J1032" xr:uid="{E602E0F9-2894-479E-A214-73E06270131D}">
+      <formula1>dataCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1037" xr:uid="{408B12C9-172B-4C8E-81C8-A22C3F01237B}">
+      <formula1>queryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1033:F1037 G2:G1037" xr:uid="{7B98D7FF-B5C7-40D1-9A90-5E2FF59600E2}">
+      <formula1>tableId</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1033:H1037" xr:uid="{5F3F9CAC-44BE-4BC7-BF4D-780462D4212C}">
+      <formula1>metaDataCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1033:G1037 H2:H1032" xr:uid="{B413714E-EF55-4917-9AB4-915704E1B0D4}">
       <formula1>scopeType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1030:H1034" xr:uid="{731E94A1-C233-4545-B593-298F19FD4BD0}">
-      <formula1>metaDataCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1030:F1034 G23:G1034 G2:G22" xr:uid="{4B8103AB-81B6-443C-B803-033A9C2DB9C4}">
-      <formula1>tableId</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C1034 C2:C22" xr:uid="{9F31F370-1770-41BF-A463-1D84DE1C7AFB}">
-      <formula1>queryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J23:J1029 I2:J22 I23:I1034" xr:uid="{391BE516-E93C-4476-8835-E07B96098A93}">
-      <formula1>dataCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23:E1034 E2:E22" xr:uid="{C2F564A9-7FA3-4F7E-9968-A49985F709AE}">
-      <formula1>measuringSystemId</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:F1029 F2:F22" xr:uid="{0AD674FE-7AC0-42A2-8665-A704E8B50C50}">
-      <formula1>serviceCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:K1028 K2:K22" xr:uid="{3219AD64-8E58-4724-83B0-F27C5D239409}">
-      <formula1>quantityType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M23:M1025 M2:M22" xr:uid="{18863168-D816-4A16-8D2C-BCB7C5A79BD1}">
-      <formula1>quantityUnitDefRefs</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L23:L1025 L2:L22" xr:uid="{A0789B79-5616-4CB4-90D9-BF3527EABEB3}">
-      <formula1>units</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1033:J1037 K1032" xr:uid="{CF833086-875F-4663-8148-9BF6897F386A}">
+      <formula1>measurandType</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13630,7 +15710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3163E2-44C8-4791-AA8E-5C3776037E92}">
   <dimension ref="A1:N36"/>
   <sheetViews>

--- a/SKH_10112_2_Mapping.xlsx
+++ b/SKH_10112_2_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tesla\data\MS\DBH\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9DE3FB-ECF4-4AB1-8FA1-941BDE680FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54FDB11-9885-41DA-B6E1-4A6E95E7AC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="0" windowWidth="28248" windowHeight="17280" activeTab="1" xr2:uid="{B2170FF3-234A-4270-BCA9-85899B3D8C87}"/>
   </bookViews>
@@ -21136,7 +21136,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="31" t="str">
-        <f>"*//*"&amp;IF(E11&gt;0,"[@"&amp;E$1&amp;"="""&amp;E11&amp;"""]","")&amp;IF(F11&gt;0,"[@"&amp;F$1&amp;"="""&amp;F11&amp;"""]","")&amp;IF(G11&gt;0,"[@"&amp;G$1&amp;"="""&amp;G11&amp;"""]","")&amp;
+        <f t="shared" ref="D11:D28" si="1">"*//*"&amp;IF(E11&gt;0,"[@"&amp;E$1&amp;"="""&amp;E11&amp;"""]","")&amp;IF(F11&gt;0,"[@"&amp;F$1&amp;"="""&amp;F11&amp;"""]","")&amp;IF(G11&gt;0,"[@"&amp;G$1&amp;"="""&amp;G11&amp;"""]","")&amp;
 "/*"&amp;IF(H11&gt;0,"[@"&amp;H$1&amp;"="""&amp;H11&amp;"""]","")&amp;IF(J11&gt;0,"[@"&amp;J$1&amp;"="""&amp;J11&amp;"""]","")&amp;IF(K11&gt;0,"[@"&amp;K$1&amp;"="""&amp;K11&amp;"""]","")&amp;IF(L11&gt;0,"[@"&amp;L$1&amp;"="""&amp;L11&amp;"""]","")&amp;IF(M11&gt;0,"[@"&amp;M$1&amp;"="""&amp;M11&amp;"""]","")&amp;
 "/dcx:"&amp;I11&amp;"/*"&amp;IF(N11&gt;0,"[@"&amp;N$1&amp;"="""&amp;N11&amp;"""]","")&amp;"/text()"</f>
         <v>*//*[@measurementConfigRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="-"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:*/*[@idx="1"]/text()</v>
@@ -21186,9 +21186,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="31" t="str">
-        <f>"*//*"&amp;IF(E12&gt;0,"[@"&amp;E$1&amp;"="""&amp;E12&amp;"""]","")&amp;IF(F12&gt;0,"[@"&amp;F$1&amp;"="""&amp;F12&amp;"""]","")&amp;IF(G12&gt;0,"[@"&amp;G$1&amp;"="""&amp;G12&amp;"""]","")&amp;
-"/*"&amp;IF(H12&gt;0,"[@"&amp;H$1&amp;"="""&amp;H12&amp;"""]","")&amp;IF(J12&gt;0,"[@"&amp;J$1&amp;"="""&amp;J12&amp;"""]","")&amp;IF(K12&gt;0,"[@"&amp;K$1&amp;"="""&amp;K12&amp;"""]","")&amp;IF(L12&gt;0,"[@"&amp;L$1&amp;"="""&amp;L12&amp;"""]","")&amp;IF(M12&gt;0,"[@"&amp;M$1&amp;"="""&amp;M12&amp;"""]","")&amp;
-"/dcx:"&amp;I12&amp;"/*"&amp;IF(N12&gt;0,"[@"&amp;N$1&amp;"="""&amp;N12&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms1"][@tableId="calRes0"]/*[@scope="indication"][@dataCategoryRef="-"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:value/*[@idx="1"]/text()</v>
       </c>
       <c r="E12" s="27" t="s">
@@ -21215,7 +21213,7 @@
       </c>
       <c r="M12" s="29"/>
       <c r="N12" s="27">
-        <f t="shared" ref="N12:N14" si="1">$O$8</f>
+        <f t="shared" ref="N12:N14" si="2">$O$8</f>
         <v>1</v>
       </c>
       <c r="O12" s="25">
@@ -21233,9 +21231,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="31" t="str">
-        <f>"*//*"&amp;IF(E13&gt;0,"[@"&amp;E$1&amp;"="""&amp;E13&amp;"""]","")&amp;IF(F13&gt;0,"[@"&amp;F$1&amp;"="""&amp;F13&amp;"""]","")&amp;IF(G13&gt;0,"[@"&amp;G$1&amp;"="""&amp;G13&amp;"""]","")&amp;
-"/*"&amp;IF(H13&gt;0,"[@"&amp;H$1&amp;"="""&amp;H13&amp;"""]","")&amp;IF(J13&gt;0,"[@"&amp;J$1&amp;"="""&amp;J13&amp;"""]","")&amp;IF(K13&gt;0,"[@"&amp;K$1&amp;"="""&amp;K13&amp;"""]","")&amp;IF(L13&gt;0,"[@"&amp;L$1&amp;"="""&amp;L13&amp;"""]","")&amp;IF(M13&gt;0,"[@"&amp;M$1&amp;"="""&amp;M13&amp;"""]","")&amp;
-"/dcx:"&amp;I13&amp;"/*"&amp;IF(N13&gt;0,"[@"&amp;N$1&amp;"="""&amp;N13&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="-"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:value/*[@idx="1"]/text()</v>
       </c>
       <c r="E13" s="27" t="s">
@@ -21262,7 +21258,7 @@
       </c>
       <c r="M13" s="29"/>
       <c r="N13" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O13" s="25">
@@ -21280,9 +21276,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="31" t="str">
-        <f>"*//*"&amp;IF(E14&gt;0,"[@"&amp;E$1&amp;"="""&amp;E14&amp;"""]","")&amp;IF(F14&gt;0,"[@"&amp;F$1&amp;"="""&amp;F14&amp;"""]","")&amp;IF(G14&gt;0,"[@"&amp;G$1&amp;"="""&amp;G14&amp;"""]","")&amp;
-"/*"&amp;IF(H14&gt;0,"[@"&amp;H$1&amp;"="""&amp;H14&amp;"""]","")&amp;IF(J14&gt;0,"[@"&amp;J$1&amp;"="""&amp;J14&amp;"""]","")&amp;IF(K14&gt;0,"[@"&amp;K$1&amp;"="""&amp;K14&amp;"""]","")&amp;IF(L14&gt;0,"[@"&amp;L$1&amp;"="""&amp;L14&amp;"""]","")&amp;IF(M14&gt;0,"[@"&amp;M$1&amp;"="""&amp;M14&amp;"""]","")&amp;
-"/dcx:"&amp;I14&amp;"/*"&amp;IF(N14&gt;0,"[@"&amp;N$1&amp;"="""&amp;N14&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:expandedUncertainty/*[@idx="1"]/text()</v>
       </c>
       <c r="E14" s="27" t="s">
@@ -21309,7 +21303,7 @@
       </c>
       <c r="M14" s="29"/>
       <c r="N14" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O14" s="25">
@@ -21327,9 +21321,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="31" t="str">
-        <f>"*//*"&amp;IF(E15&gt;0,"[@"&amp;E$1&amp;"="""&amp;E15&amp;"""]","")&amp;IF(F15&gt;0,"[@"&amp;F$1&amp;"="""&amp;F15&amp;"""]","")&amp;IF(G15&gt;0,"[@"&amp;G$1&amp;"="""&amp;G15&amp;"""]","")&amp;
-"/*"&amp;IF(H15&gt;0,"[@"&amp;H$1&amp;"="""&amp;H15&amp;"""]","")&amp;IF(J15&gt;0,"[@"&amp;J$1&amp;"="""&amp;J15&amp;"""]","")&amp;IF(K15&gt;0,"[@"&amp;K$1&amp;"="""&amp;K15&amp;"""]","")&amp;IF(L15&gt;0,"[@"&amp;L$1&amp;"="""&amp;L15&amp;"""]","")&amp;IF(M15&gt;0,"[@"&amp;M$1&amp;"="""&amp;M15&amp;"""]","")&amp;
-"/dcx:"&amp;I15&amp;"/*"&amp;IF(N15&gt;0,"[@"&amp;N$1&amp;"="""&amp;N15&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms1"][@tableId="calRes0"]/*[@scope="reference"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:value/*[@idx="2"]/text()</v>
       </c>
       <c r="E15" s="27" t="s">
@@ -21372,9 +21364,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="31" t="str">
-        <f>"*//*"&amp;IF(E16&gt;0,"[@"&amp;E$1&amp;"="""&amp;E16&amp;"""]","")&amp;IF(F16&gt;0,"[@"&amp;F$1&amp;"="""&amp;F16&amp;"""]","")&amp;IF(G16&gt;0,"[@"&amp;G$1&amp;"="""&amp;G16&amp;"""]","")&amp;
-"/*"&amp;IF(H16&gt;0,"[@"&amp;H$1&amp;"="""&amp;H16&amp;"""]","")&amp;IF(J16&gt;0,"[@"&amp;J$1&amp;"="""&amp;J16&amp;"""]","")&amp;IF(K16&gt;0,"[@"&amp;K$1&amp;"="""&amp;K16&amp;"""]","")&amp;IF(L16&gt;0,"[@"&amp;L$1&amp;"="""&amp;L16&amp;"""]","")&amp;IF(M16&gt;0,"[@"&amp;M$1&amp;"="""&amp;M16&amp;"""]","")&amp;
-"/dcx:"&amp;I16&amp;"/*"&amp;IF(N16&gt;0,"[@"&amp;N$1&amp;"="""&amp;N16&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms1"][@tableId="calRes0"]/*[@scope="indication"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:value/*[@idx="2"]/text()</v>
       </c>
       <c r="E16" s="27" t="s">
@@ -21399,7 +21389,7 @@
       </c>
       <c r="M16" s="29"/>
       <c r="N16" s="27">
-        <f t="shared" ref="N16:N24" si="2">$O$9</f>
+        <f t="shared" ref="N16:N24" si="3">$O$9</f>
         <v>2</v>
       </c>
       <c r="O16" s="25">
@@ -21417,9 +21407,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="31" t="str">
-        <f>"*//*"&amp;IF(E17&gt;0,"[@"&amp;E$1&amp;"="""&amp;E17&amp;"""]","")&amp;IF(F17&gt;0,"[@"&amp;F$1&amp;"="""&amp;F17&amp;"""]","")&amp;IF(G17&gt;0,"[@"&amp;G$1&amp;"="""&amp;G17&amp;"""]","")&amp;
-"/*"&amp;IF(H17&gt;0,"[@"&amp;H$1&amp;"="""&amp;H17&amp;"""]","")&amp;IF(J17&gt;0,"[@"&amp;J$1&amp;"="""&amp;J17&amp;"""]","")&amp;IF(K17&gt;0,"[@"&amp;K$1&amp;"="""&amp;K17&amp;"""]","")&amp;IF(L17&gt;0,"[@"&amp;L$1&amp;"="""&amp;L17&amp;"""]","")&amp;IF(M17&gt;0,"[@"&amp;M$1&amp;"="""&amp;M17&amp;"""]","")&amp;
-"/dcx:"&amp;I17&amp;"/*"&amp;IF(N17&gt;0,"[@"&amp;N$1&amp;"="""&amp;N17&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:value/*[@idx="2"]/text()</v>
       </c>
       <c r="E17" s="27" t="s">
@@ -21444,7 +21432,7 @@
       </c>
       <c r="M17" s="29"/>
       <c r="N17" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O17" s="25">
@@ -21462,9 +21450,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="31" t="str">
-        <f>"*//*"&amp;IF(E18&gt;0,"[@"&amp;E$1&amp;"="""&amp;E18&amp;"""]","")&amp;IF(F18&gt;0,"[@"&amp;F$1&amp;"="""&amp;F18&amp;"""]","")&amp;IF(G18&gt;0,"[@"&amp;G$1&amp;"="""&amp;G18&amp;"""]","")&amp;
-"/*"&amp;IF(H18&gt;0,"[@"&amp;H$1&amp;"="""&amp;H18&amp;"""]","")&amp;IF(J18&gt;0,"[@"&amp;J$1&amp;"="""&amp;J18&amp;"""]","")&amp;IF(K18&gt;0,"[@"&amp;K$1&amp;"="""&amp;K18&amp;"""]","")&amp;IF(L18&gt;0,"[@"&amp;L$1&amp;"="""&amp;L18&amp;"""]","")&amp;IF(M18&gt;0,"[@"&amp;M$1&amp;"="""&amp;M18&amp;"""]","")&amp;
-"/dcx:"&amp;I18&amp;"/*"&amp;IF(N18&gt;0,"[@"&amp;N$1&amp;"="""&amp;N18&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:expandedUncertainty/*[@idx="2"]/text()</v>
       </c>
       <c r="E18" s="27" t="s">
@@ -21491,7 +21477,7 @@
       </c>
       <c r="M18" s="29"/>
       <c r="N18" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O18" s="25">
@@ -21509,9 +21495,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="31" t="str">
-        <f>"*//*"&amp;IF(E19&gt;0,"[@"&amp;E$1&amp;"="""&amp;E19&amp;"""]","")&amp;IF(F19&gt;0,"[@"&amp;F$1&amp;"="""&amp;F19&amp;"""]","")&amp;IF(G19&gt;0,"[@"&amp;G$1&amp;"="""&amp;G19&amp;"""]","")&amp;
-"/*"&amp;IF(H19&gt;0,"[@"&amp;H$1&amp;"="""&amp;H19&amp;"""]","")&amp;IF(J19&gt;0,"[@"&amp;J$1&amp;"="""&amp;J19&amp;"""]","")&amp;IF(K19&gt;0,"[@"&amp;K$1&amp;"="""&amp;K19&amp;"""]","")&amp;IF(L19&gt;0,"[@"&amp;L$1&amp;"="""&amp;L19&amp;"""]","")&amp;IF(M19&gt;0,"[@"&amp;M$1&amp;"="""&amp;M19&amp;"""]","")&amp;
-"/dcx:"&amp;I19&amp;"/*"&amp;IF(N19&gt;0,"[@"&amp;N$1&amp;"="""&amp;N19&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms1"][@tableId="calRes0"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="%"]/dcx:expandedUncertainty/*[@idx="2"]/text()</v>
       </c>
       <c r="E19" s="27" t="s">
@@ -21538,7 +21522,7 @@
       </c>
       <c r="M19" s="29"/>
       <c r="N19" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O19" s="25">
@@ -21556,9 +21540,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="31" t="str">
-        <f>"*//*"&amp;IF(E20&gt;0,"[@"&amp;E$1&amp;"="""&amp;E20&amp;"""]","")&amp;IF(F20&gt;0,"[@"&amp;F$1&amp;"="""&amp;F20&amp;"""]","")&amp;IF(G20&gt;0,"[@"&amp;G$1&amp;"="""&amp;G20&amp;"""]","")&amp;
-"/*"&amp;IF(H20&gt;0,"[@"&amp;H$1&amp;"="""&amp;H20&amp;"""]","")&amp;IF(J20&gt;0,"[@"&amp;J$1&amp;"="""&amp;J20&amp;"""]","")&amp;IF(K20&gt;0,"[@"&amp;K$1&amp;"="""&amp;K20&amp;"""]","")&amp;IF(L20&gt;0,"[@"&amp;L$1&amp;"="""&amp;L20&amp;"""]","")&amp;IF(M20&gt;0,"[@"&amp;M$1&amp;"="""&amp;M20&amp;"""]","")&amp;
-"/dcx:"&amp;I20&amp;"/*"&amp;IF(N20&gt;0,"[@"&amp;N$1&amp;"="""&amp;N20&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms2"][@tableId="calRes2"]/*[@scope="reference"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:value/*[@idx="2"]/text()</v>
       </c>
       <c r="E20" s="27" t="s">
@@ -21583,7 +21565,7 @@
       </c>
       <c r="M20" s="29"/>
       <c r="N20" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O20" s="25">
@@ -21601,9 +21583,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="31" t="str">
-        <f>"*//*"&amp;IF(E21&gt;0,"[@"&amp;E$1&amp;"="""&amp;E21&amp;"""]","")&amp;IF(F21&gt;0,"[@"&amp;F$1&amp;"="""&amp;F21&amp;"""]","")&amp;IF(G21&gt;0,"[@"&amp;G$1&amp;"="""&amp;G21&amp;"""]","")&amp;
-"/*"&amp;IF(H21&gt;0,"[@"&amp;H$1&amp;"="""&amp;H21&amp;"""]","")&amp;IF(J21&gt;0,"[@"&amp;J$1&amp;"="""&amp;J21&amp;"""]","")&amp;IF(K21&gt;0,"[@"&amp;K$1&amp;"="""&amp;K21&amp;"""]","")&amp;IF(L21&gt;0,"[@"&amp;L$1&amp;"="""&amp;L21&amp;"""]","")&amp;IF(M21&gt;0,"[@"&amp;M$1&amp;"="""&amp;M21&amp;"""]","")&amp;
-"/dcx:"&amp;I21&amp;"/*"&amp;IF(N21&gt;0,"[@"&amp;N$1&amp;"="""&amp;N21&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms2"][@tableId="calRes2"]/*[@scope="indication"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:value/*[@idx="2"]/text()</v>
       </c>
       <c r="E21" s="27" t="s">
@@ -21628,7 +21608,7 @@
       </c>
       <c r="M21" s="29"/>
       <c r="N21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O21" s="25">
@@ -21646,9 +21626,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="31" t="str">
-        <f>"*//*"&amp;IF(E22&gt;0,"[@"&amp;E$1&amp;"="""&amp;E22&amp;"""]","")&amp;IF(F22&gt;0,"[@"&amp;F$1&amp;"="""&amp;F22&amp;"""]","")&amp;IF(G22&gt;0,"[@"&amp;G$1&amp;"="""&amp;G22&amp;"""]","")&amp;
-"/*"&amp;IF(H22&gt;0,"[@"&amp;H$1&amp;"="""&amp;H22&amp;"""]","")&amp;IF(J22&gt;0,"[@"&amp;J$1&amp;"="""&amp;J22&amp;"""]","")&amp;IF(K22&gt;0,"[@"&amp;K$1&amp;"="""&amp;K22&amp;"""]","")&amp;IF(L22&gt;0,"[@"&amp;L$1&amp;"="""&amp;L22&amp;"""]","")&amp;IF(M22&gt;0,"[@"&amp;M$1&amp;"="""&amp;M22&amp;"""]","")&amp;
-"/dcx:"&amp;I22&amp;"/*"&amp;IF(N22&gt;0,"[@"&amp;N$1&amp;"="""&amp;N22&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms2"][@tableId="calRes2"]/*[@scope="bias"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:value/*[@idx="2"]/text()</v>
       </c>
       <c r="E22" s="27" t="s">
@@ -21673,7 +21651,7 @@
       </c>
       <c r="M22" s="29"/>
       <c r="N22" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O22" s="25">
@@ -21691,9 +21669,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="31" t="str">
-        <f>"*//*"&amp;IF(E23&gt;0,"[@"&amp;E$1&amp;"="""&amp;E23&amp;"""]","")&amp;IF(F23&gt;0,"[@"&amp;F$1&amp;"="""&amp;F23&amp;"""]","")&amp;IF(G23&gt;0,"[@"&amp;G$1&amp;"="""&amp;G23&amp;"""]","")&amp;
-"/*"&amp;IF(H23&gt;0,"[@"&amp;H$1&amp;"="""&amp;H23&amp;"""]","")&amp;IF(J23&gt;0,"[@"&amp;J$1&amp;"="""&amp;J23&amp;"""]","")&amp;IF(K23&gt;0,"[@"&amp;K$1&amp;"="""&amp;K23&amp;"""]","")&amp;IF(L23&gt;0,"[@"&amp;L$1&amp;"="""&amp;L23&amp;"""]","")&amp;IF(M23&gt;0,"[@"&amp;M$1&amp;"="""&amp;M23&amp;"""]","")&amp;
-"/dcx:"&amp;I23&amp;"/*"&amp;IF(N23&gt;0,"[@"&amp;N$1&amp;"="""&amp;N23&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms2"][@tableId="calRes2"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:expandedUncertainty/*[@idx="2"]/text()</v>
       </c>
       <c r="E23" s="27" t="s">
@@ -21720,7 +21696,7 @@
       </c>
       <c r="M23" s="29"/>
       <c r="N23" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O23" s="25">
@@ -21738,9 +21714,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="31" t="str">
-        <f>"*//*"&amp;IF(E24&gt;0,"[@"&amp;E$1&amp;"="""&amp;E24&amp;"""]","")&amp;IF(F24&gt;0,"[@"&amp;F$1&amp;"="""&amp;F24&amp;"""]","")&amp;IF(G24&gt;0,"[@"&amp;G$1&amp;"="""&amp;G24&amp;"""]","")&amp;
-"/*"&amp;IF(H24&gt;0,"[@"&amp;H$1&amp;"="""&amp;H24&amp;"""]","")&amp;IF(J24&gt;0,"[@"&amp;J$1&amp;"="""&amp;J24&amp;"""]","")&amp;IF(K24&gt;0,"[@"&amp;K$1&amp;"="""&amp;K24&amp;"""]","")&amp;IF(L24&gt;0,"[@"&amp;L$1&amp;"="""&amp;L24&amp;"""]","")&amp;IF(M24&gt;0,"[@"&amp;M$1&amp;"="""&amp;M24&amp;"""]","")&amp;
-"/dcx:"&amp;I24&amp;"/*"&amp;IF(N24&gt;0,"[@"&amp;N$1&amp;"="""&amp;N24&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms2"][@tableId="calRes2"]/*[@scope="bias"][@dataCategoryRef="value"][@quantity="3-4|volume|m3"][@unit="%"]/dcx:expandedUncertainty/*[@idx="2"]/text()</v>
       </c>
       <c r="E24" s="27" t="s">
@@ -21767,7 +21741,7 @@
       </c>
       <c r="M24" s="29"/>
       <c r="N24" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O24" s="25">
@@ -21785,9 +21759,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="31" t="str">
-        <f>"*//*"&amp;IF(E25&gt;0,"[@"&amp;E$1&amp;"="""&amp;E25&amp;"""]","")&amp;IF(F25&gt;0,"[@"&amp;F$1&amp;"="""&amp;F25&amp;"""]","")&amp;IF(G25&gt;0,"[@"&amp;G$1&amp;"="""&amp;G25&amp;"""]","")&amp;
-"/*"&amp;IF(H25&gt;0,"[@"&amp;H$1&amp;"="""&amp;H25&amp;"""]","")&amp;IF(J25&gt;0,"[@"&amp;J$1&amp;"="""&amp;J25&amp;"""]","")&amp;IF(K25&gt;0,"[@"&amp;K$1&amp;"="""&amp;K25&amp;"""]","")&amp;IF(L25&gt;0,"[@"&amp;L$1&amp;"="""&amp;L25&amp;"""]","")&amp;IF(M25&gt;0,"[@"&amp;M$1&amp;"="""&amp;M25&amp;"""]","")&amp;
-"/dcx:"&amp;I25&amp;"/*"&amp;IF(N25&gt;0,"[@"&amp;N$1&amp;"="""&amp;N25&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms1"][@tableId="calRes0"]/*[@scope="reference"][@quantity="3-4|volume|m3"][@unit="µL"]/dcx:value/*[@idx="1"]/text()</v>
       </c>
       <c r="E25" s="27" t="s">
@@ -21812,7 +21784,7 @@
       </c>
       <c r="M25" s="29"/>
       <c r="N25" s="27">
-        <f t="shared" ref="N25:N26" si="3">$O$8</f>
+        <f t="shared" ref="N25:N26" si="4">$O$8</f>
         <v>1</v>
       </c>
       <c r="O25" s="25">
@@ -21828,9 +21800,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="31" t="str">
-        <f>"*//*"&amp;IF(E26&gt;0,"[@"&amp;E$1&amp;"="""&amp;E26&amp;"""]","")&amp;IF(F26&gt;0,"[@"&amp;F$1&amp;"="""&amp;F26&amp;"""]","")&amp;IF(G26&gt;0,"[@"&amp;G$1&amp;"="""&amp;G26&amp;"""]","")&amp;
-"/*"&amp;IF(H26&gt;0,"[@"&amp;H$1&amp;"="""&amp;H26&amp;"""]","")&amp;IF(J26&gt;0,"[@"&amp;J$1&amp;"="""&amp;J26&amp;"""]","")&amp;IF(K26&gt;0,"[@"&amp;K$1&amp;"="""&amp;K26&amp;"""]","")&amp;IF(L26&gt;0,"[@"&amp;L$1&amp;"="""&amp;L26&amp;"""]","")&amp;IF(M26&gt;0,"[@"&amp;M$1&amp;"="""&amp;M26&amp;"""]","")&amp;
-"/dcx:"&amp;I26&amp;"/*"&amp;IF(N26&gt;0,"[@"&amp;N$1&amp;"="""&amp;N26&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@measurementConfigRef="ms1"][@tableId="calRes0"]/*/dcx:rowTag/*[@idx="1"]/text()</v>
       </c>
       <c r="E26" s="27" t="s">
@@ -21849,7 +21819,7 @@
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="N26" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O26" s="25" t="s">
@@ -21865,9 +21835,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="31" t="str">
-        <f>"*//*"&amp;IF(E27&gt;0,"[@"&amp;E$1&amp;"="""&amp;E27&amp;"""]","")&amp;IF(F27&gt;0,"[@"&amp;F$1&amp;"="""&amp;F27&amp;"""]","")&amp;IF(G27&gt;0,"[@"&amp;G$1&amp;"="""&amp;G27&amp;"""]","")&amp;
-"/*"&amp;IF(H27&gt;0,"[@"&amp;H$1&amp;"="""&amp;H27&amp;"""]","")&amp;IF(J27&gt;0,"[@"&amp;J$1&amp;"="""&amp;J27&amp;"""]","")&amp;IF(K27&gt;0,"[@"&amp;K$1&amp;"="""&amp;K27&amp;"""]","")&amp;IF(L27&gt;0,"[@"&amp;L$1&amp;"="""&amp;L27&amp;"""]","")&amp;IF(M27&gt;0,"[@"&amp;M$1&amp;"="""&amp;M27&amp;"""]","")&amp;
-"/dcx:"&amp;I27&amp;"/*"&amp;IF(N27&gt;0,"[@"&amp;N$1&amp;"="""&amp;N27&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@tableId="calRes0"]/*/dcx:rowTag/*[@idx="2"]/text()</v>
       </c>
       <c r="E27" s="27"/>
@@ -21884,7 +21852,7 @@
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="N27" s="27">
-        <f t="shared" ref="N27" si="4">$O$9</f>
+        <f t="shared" ref="N27" si="5">$O$9</f>
         <v>2</v>
       </c>
       <c r="O27" s="25" t="s">
@@ -21900,9 +21868,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="31" t="str">
-        <f>"*//*"&amp;IF(E28&gt;0,"[@"&amp;E$1&amp;"="""&amp;E28&amp;"""]","")&amp;IF(F28&gt;0,"[@"&amp;F$1&amp;"="""&amp;F28&amp;"""]","")&amp;IF(G28&gt;0,"[@"&amp;G$1&amp;"="""&amp;G28&amp;"""]","")&amp;
-"/*"&amp;IF(H28&gt;0,"[@"&amp;H$1&amp;"="""&amp;H28&amp;"""]","")&amp;IF(J28&gt;0,"[@"&amp;J$1&amp;"="""&amp;J28&amp;"""]","")&amp;IF(K28&gt;0,"[@"&amp;K$1&amp;"="""&amp;K28&amp;"""]","")&amp;IF(L28&gt;0,"[@"&amp;L$1&amp;"="""&amp;L28&amp;"""]","")&amp;IF(M28&gt;0,"[@"&amp;M$1&amp;"="""&amp;M28&amp;"""]","")&amp;
-"/dcx:"&amp;I28&amp;"/*"&amp;IF(N28&gt;0,"[@"&amp;N$1&amp;"="""&amp;N28&amp;"""]","")&amp;"/text()"</f>
+        <f t="shared" si="1"/>
         <v>*//*[@tableId="calRes0"]/*/dcx:rowTag/*[@idx="3"]/text()</v>
       </c>
       <c r="E28" s="27"/>
@@ -21995,34 +21961,34 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1033:J1037 K1032" xr:uid="{93874A6F-CB79-438B-9352-A0C151DB9D10}">
       <formula1>measurandType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1033:G1037 H2:H1032" xr:uid="{701229B1-CC74-457F-881B-8E3C40337601}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1033:G1037 H1025:H1032 H2:H1024" xr:uid="{701229B1-CC74-457F-881B-8E3C40337601}">
       <formula1>scopeType</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1033:H1037" xr:uid="{731E94A1-C233-4545-B593-298F19FD4BD0}">
       <formula1>metaDataCategoryType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1033:F1037 G2:G1037" xr:uid="{4B8103AB-81B6-443C-B803-033A9C2DB9C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1033:F1037 G1025:G1037 G2:G1024" xr:uid="{4B8103AB-81B6-443C-B803-033A9C2DB9C4}">
       <formula1>tableId</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1037" xr:uid="{9F31F370-1770-41BF-A463-1D84DE1C7AFB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1025:C1037 C2:C1024" xr:uid="{9F31F370-1770-41BF-A463-1D84DE1C7AFB}">
       <formula1>queryType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1037 J2:J1032" xr:uid="{391BE516-E93C-4476-8835-E07B96098A93}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1024 I1025:I1037 J1025:J1032 J2:J1024" xr:uid="{391BE516-E93C-4476-8835-E07B96098A93}">
       <formula1>dataCategoryType</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1025:E1037" xr:uid="{C2F564A9-7FA3-4F7E-9968-A49985F709AE}">
       <formula1>measuringSystemId</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1032" xr:uid="{0AD674FE-7AC0-42A2-8665-A704E8B50C50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1025:F1032 F2:F1024" xr:uid="{0AD674FE-7AC0-42A2-8665-A704E8B50C50}">
       <formula1>serviceCategoryType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1031" xr:uid="{3219AD64-8E58-4724-83B0-F27C5D239409}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1025:K1031 K2:K1024" xr:uid="{3219AD64-8E58-4724-83B0-F27C5D239409}">
       <formula1>quantityType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1028" xr:uid="{18863168-D816-4A16-8D2C-BCB7C5A79BD1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1025:M1028 M2:M1024" xr:uid="{18863168-D816-4A16-8D2C-BCB7C5A79BD1}">
       <formula1>quantityUnitDefRefs</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1028" xr:uid="{A0789B79-5616-4CB4-90D9-BF3527EABEB3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1025:L1028 L2:L1024" xr:uid="{A0789B79-5616-4CB4-90D9-BF3527EABEB3}">
       <formula1>units</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1024" xr:uid="{53FD821C-304E-4DCB-917A-5DA86517DC0C}">
